--- a/dados/horarios_teste.xlsx
+++ b/dados/horarios_teste.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t xml:space="preserve">-FUSÃO: CIÊNCIAS SOCIAIS + FILOSOFIA + MATEMÁTICA</t>
   </si>
@@ -80,1287 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">GCH087 - ANTROPOLOGIA PARA ADMINISTRADORES (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 3º PERÍODO: 3N1234 (16/10/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH290 - INICIAÇÃO À PRÁTICA CIENTÍFICA (GRADUAÇÃO) (Turma:11) ADMINISTRAÇÃO - 1º PERÍODO: 3N1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH293 - INTRODUÇÃO À FILOSOFIA (GRADUAÇÃO) (Turma:3) ADMINISTRAÇÃO - 2º PERÍODO: 2M2345 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS066 - ADMINISTRAÇÃO DE CUSTOS (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 4º PERÍODO: 5M12345 (14/08/2023 - 08/12/2023), 5M12 (14/12/2023 - 14/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS068 - ADMINISTRAÇÃO FINANCEIRA I (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 4º PERÍODO: 6M2345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS072 - ADMINISTRAÇÃO DA PRODUÇÃO II (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 6º PERÍODO: 2M2345 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS077 - GESTÃO DE COOPERATIVAS (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 7º PERÍODO: 3N1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS080 - ESTRATÉGIA MERCADOLÓGICA (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 7º PERÍODO: 2N1234 (14/08/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS081 - PLANEJAMENTO FINANCEIRO E ORÇAMENTÁRIO (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 6º PERÍODO: 5M12345 (14/08/2023 - 08/12/2023), 5M12 (14/12/2023 - 14/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS082 - GESTÃO DE PEQUENOS EMPREENDIMENTOS (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 8º PERÍODO: 5M12345 (14/08/2023 - 08/12/2023), 5M12 (14/12/2023 - 14/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS235 - ADMINISTRAÇÃO ESTRATÉGICA (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 8º PERÍODO: 2M2345 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS238 - MEIO AMBIENTE, ECONOMIA E SOCIEDADE (GRADUAÇÃO) (Turma:9) ADMINISTRAÇÃO - 2º PERÍODO: 6M2345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS239 - DIREITOS E CIDADANIA (GRADUAÇÃO) (Turma:3) ADMINISTRAÇÃO - 7º PERÍODO: 6N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS525 - FUNDAMENTOS DO COOPERATIVISMO (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 1º PERÍODO: 6N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS526 - FUNDAMENTOS DE ECONOMIA (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 2º PERÍODO: 5M12345 (14/08/2023 - 08/12/2023), 5M12 (14/12/2023 - 14/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS527 - TEORIAS DA ADMINISTRAÇÃO I (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 2º PERÍODO: 3M2345 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS528 - ECONOMIA APLICADA À ADMINISTRAÇÃO (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 3º PERÍODO: 3N1234 (14/08/2023 - 13/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS529 - PLANEJAMENTO ORGANIZACIONAL (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 3º PERÍODO: 7M2345 5N1234 (14/08/2023 - 26/08/2023), 5N1234 (31/08/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS530 - CONTABILIDADE GERAL (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 3º PERÍODO: 2N1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS531 - TEORIAS DA ADMINISTRAÇÃO II (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 3º PERÍODO: 6N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS532 - COMPORTAMENTO ORGANIZACIONAL I (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 4º PERÍODO: 2M2345 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS533 - ESTRUTURAS E SISTEMAS ORGANIZACIONAIS (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 4º PERÍODO: 4M2345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS534 - INTRODUÇÃO À ADMINISTRAÇÃO (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 1º PERÍODO: 4N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS535 - ANÁLISE ESTATÍSTICA (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 4º PERÍODO: 3M2345 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS536 - ADMINISTRAÇÃO FINANCEIRA II (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 5º PERÍODO: 4N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS537 - COMPORTAMENTO ORGANIZACIONAL II (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 5º PERÍODO: 5N1234 (14/08/2023 - 31/08/2023), 7M2345 (02/09/2023 - 09/09/2023), 5N1234 (14/09/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS538 - ADMINISTRAÇÃO DE MATERIAIS (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 5º PERÍODO: 2N1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS539 - ADMINISTRAÇÃO DA PRODUÇÃO I (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 5º PERÍODO: 6N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS540 - ADMINISTRAÇÃO DE MARKETING (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 5º PERÍODO: 3N1234 (14/08/2023 - 12/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS541 - PESQUISA DE MARKETING (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 6º PERÍODO: 3M2345 (14/08/2023 - 12/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS542 - LOGÍSTICA EMPRESARIAL (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 6º PERÍODO: 6M2345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS543 - GESTÃO DE PESSOAS I (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 6º PERÍODO: 4M2345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS544 - MÉTODOS QUANTITATIVOS DE TOMADA DE DECISÃO (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 7º PERÍODO: 4N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS545 - GESTÃO DE PESSOAS II (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 7º PERÍODO: 5N1234 (14/08/2023 - 14/09/2023), 7M2345 5N1234 (16/09/2023 - 23/09/2023), 5N1234 (28/09/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS546 - EMPREENDEDORISMO E CRIAÇÃO DE NEGÓCIOS (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 8º PERÍODO: 3M2345 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS547 - DIREITO PARA ADMINISTRADORES (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 8º PERÍODO: 6M2345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS548 - TRABALHO DE CONCLUSÃO DE CURSO I (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 8º PERÍODO: 4M2345 (14/08/2023 - 14/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS549 - ADMINISTRAÇÃO DE SISTEMAS DE INFORMAÇÃO (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 9º PERÍODO: 3N1234 (17/10/2023 - 12/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS550 - ADMINISTRAÇÃO E ANÁLISE DE PROJETOS (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 9º PERÍODO: 2N1234 (14/08/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS551 - JOGOS EMPRESARIAIS (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 9º PERÍODO: 4N1234 (14/08/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS552 - TRABALHO DE CONCLUSÃO DE CURSO II (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 9º PERÍODO: 45T123456 (14/08/2023 - 24/11/2023), 45T123 (27/11/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS554 - ESTUDOS AVANÇADOS II (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - optativa: 5N1234 (19/10/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS556 - ESTUDOS AVANÇADOS IV (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - optativa: 4M2345 (16/10/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS566 - ESTUDOS AVANÇADOS XIV (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - optativa: 3N1234 (14/08/2023 - 10/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS573 - GESTÃO DA INOVAÇÃO (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 9º PERÍODO: 6N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX094 - MATEMÁTICA FINANCEIRA (GRADUAÇÃO) (Turma:1) ADMINISTRAÇÃO - 2º PERÍODO: 4M2345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX210 - ESTATÍSTICA BÁSICA (GRADUAÇÃO) (Turma:3) ADMINISTRAÇÃO - 3º PERÍODO: 4N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX212 - MATEMÁTICA B (GRADUAÇÃO) (Turma:4) ADMINISTRAÇÃO - 1º PERÍODO: 2N1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA104 - PRODUÇÃO TEXTUAL ACADÊMICA (GRADUAÇÃO) (Turma:3) ADMINISTRAÇÃO - 1º PERÍODO: 5N1234 (14/08/2023 - 08/12/2023), 7M2345 (09/12/2023 - 09/12/2023), 5N1234 (14/12/2023 - 14/12/2023), 7M2345 (16/12/2023 - 16/12/2023), 5N1234 (21/12/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGRONOMIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA025 - AGROECOLOGIA I (GRADUAÇÃO) (Turma:1) AGRONOMIA - 6º PERÍODO: 3M2345 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA034 - EXPERIMENTAÇÃO AGRÍCOLA (GRADUAÇÃO) (Turma:1) AGRONOMIA - 4º PERÍODO: 4T123 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA037 - QUÍMICA E FERTILIDADE DO SOLO (GRADUAÇÃO) (Turma:1) AGRONOMIA - 4º PERÍODO: 5M2346 (14/08/2023 - 14/10/2023), 5M234 (15/10/2023 - 15/12/2023), 5M23 (16/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA037 - QUÍMICA E FERTILIDADE DO SOLO (GRADUAÇÃO) (Turma:2) AGRONOMIA - 4º PERÍODO: 5M2356 (14/08/2023 - 14/10/2023), 5M235 (15/10/2023 - 15/12/2023), 5M23 (16/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA045 - PROPAGAÇÃO DE PLANTAS (GRADUAÇÃO) (Turma:1) AGRONOMIA - 4º PERÍODO: 6M45 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA050 - SUINOCULTURA (GRADUAÇÃO) (Turma:1) AGRONOMIA - 6º PERÍODO: 5T1234 (14/08/2023 - 13/10/2023), 5T123 (14/10/2023 - 15/12/2023), 5T12 (16/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA210 - BROMATOLOGIA (GRADUAÇÃO) (Turma:1) AGRONOMIA - 4º PERÍODO: 2M34 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA210 - BROMATOLOGIA (GRADUAÇÃO) (Turma:2) AGRONOMIA - 4º PERÍODO: 2M35 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA210 - BROMATOLOGIA (GRADUAÇÃO) (Turma:3) AGRONOMIA - 2º PERÍODO: 5M126 (14/08/2023 - 15/09/2023), 5M12 (16/09/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA210 - BROMATOLOGIA (GRADUAÇÃO) (Turma:4) AGRONOMIA - 2º PERÍODO: 5M136 (14/08/2023 - 15/09/2023), 5M13 (16/09/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA218 - FUNDAMENTOS DE ZOOTECNIA (GRADUAÇÃO) (Turma:1) AGRONOMIA - 2º PERÍODO: 2M45 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA218 - FUNDAMENTOS DE ZOOTECNIA (GRADUAÇÃO) (Turma:2) AGRONOMIA - 4º PERÍODO: 4M23 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA221 - AGROECOLOGIA II (GRADUAÇÃO) (Turma:1) AGRONOMIA - 8º PERÍODO: 4T1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA224 - AVICULTURA (GRADUAÇÃO) (Turma:1) AGRONOMIA - 8º PERÍODO: 2T123 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA225 - BOVINOCULTURA DE LEITE (GRADUAÇÃO) (Turma:1) AGRONOMIA - 7º PERÍODO: 3N1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA239 - EXTENSÃO RURAL (GRADUAÇÃO) (Turma:1) AGRONOMIA - 6º PERÍODO: 4M123 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA241 - FORRAGICULTURA (GRADUAÇÃO) (Turma:1) AGRONOMIA - 6º PERÍODO: 4T1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA245 - IRRIGAÇÃO E DRENAGEM (GRADUAÇÃO) (Turma:1) AGRONOMIA - 8º PERÍODO: 3M2345 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA250 - MANEJO DE PLANTAS ESPONTÂNEAS (GRADUAÇÃO) (Turma:1) AGRONOMIA - 6º PERÍODO: 2M345 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA255 - MECANIZAÇÃO E MÁQUINAS AGRÍCOLAS (GRADUAÇÃO) (Turma:1) AGRONOMIA - 8º PERÍODO: 5T12345 (14/08/2023 - 31/10/2023), 5T1234 (01/11/2023 - 15/12/2023), 5T123 (16/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA257 - OLERICULTURA (GRADUAÇÃO) (Turma:1) AGRONOMIA - 8º PERÍODO: 5M12345 (14/08/2023 - 31/10/2023), 5M2345 (01/11/2023 - 15/12/2023), 5M234 (16/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA269 - SOBERANIA E SEGURANÇA ALIMENTAR E NUTRICIONAL (GRADUAÇÃO) (Turma:1) AGRONOMIA - 8º PERÍODO: 2M45 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA282 - TRABALHO DE CONCLUSÃO DE CURSO (GRADUAÇÃO) (Turma:1) AGRONOMIA - 9º PERÍODO: 6T346 6N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA283 - ESTÁGIO CURRICULAR SUPERVISIONADO (GRADUAÇÃO) (Turma:1) AGRONOMIA - 10º PERÍODO: 7M123456 37T123456 7N123 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA286 - CLASSIFICAÇÃO DE SOLOS (GRADUAÇÃO) (Turma:1) AGRONOMIA - 6º PERÍODO: 3T123 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA286 - CLASSIFICAÇÃO DE SOLOS (GRADUAÇÃO) (Turma:2) AGRONOMIA - 6º PERÍODO: 3T145 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA287 - PLANEJAMENTO DE TCC E ESTÁGIO CURRICULAR SUPERVISIONADO (GRADUAÇÃO) (Turma:1) AGRONOMIA - 7º PERÍODO: 6T12 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA312 - APICULTURA (GRADUAÇÃO) (Turma:1) AGRONOMIA - optativa: 6M12 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA315 - FLORICULTURA E PAISAGISMO (GRADUAÇÃO) (Turma:1) AGRONOMIA - optativa: 6T123 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA588 - TÓPICOS EM AGRONOMIA VIII (GRADUAÇÃO) (Turma:1) AGRONOMIA - optativa: 6M345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA655 - INTRODUÇÃO À POLUIÇÃO DO SOLO (GRADUAÇÃO) (Turma:1) AGRONOMIA - optativa: 6M345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA657 - AVALIAÇÃO DA QUALIDADE FÍSICA DO SOLO (GRADUAÇÃO) (Turma:1) AGRONOMIA - optativa: 6M2345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA675 - ECOFISIOLOGIA DA PRODUÇÃO DE SEMENTES (GRADUAÇÃO) (Turma:1) AGRONOMIA - optativa: 6M345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCB030 - MICROBIOLOGIA (GRADUAÇÃO) (Turma:1) AGRONOMIA - 3º PERÍODO: 2M123 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCB054 - BIOTECNOLOGIA (GRADUAÇÃO) (Turma:1) AGRONOMIA - 6º PERÍODO: 4M45 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCB056 - ORGANOGRAFIA E SISTEMÁTICA DE ESPERMATÓFITOS (GRADUAÇÃO) (Turma:4) AGRONOMIA - 2º PERÍODO: 5M45 3T125 (14/08/2023 - 08/09/2023), 5M45 3T12 (09/09/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCB056 - ORGANOGRAFIA E SISTEMÁTICA DE ESPERMATÓFITOS (GRADUAÇÃO) (Turma:5) AGRONOMIA - 2º PERÍODO: 5M45 3T345 (14/08/2023 - 08/09/2023), 5M45 3T34 (09/09/2023 - 15/12/2023), 3T34 (16/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCB107 - BIOQUÍMICA (GRADUAÇÃO) (Turma:1) AGRONOMIA - 2º PERÍODO: 4M1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCB130 - NUTRIÇÃO VEGETAL (GRADUAÇÃO) (Turma:1) AGRONOMIA - 4º PERÍODO: 4M45 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH008 - INICIAÇÃO À PRÁTICA CIENTÍFICA (GRADUAÇÃO) (Turma:1) AGRONOMIA - 4º PERÍODO: 5T12345 (14/08/2023 - 31/10/2023), 5T1234 (01/11/2023 - 14/12/2023), 5T123 (15/12/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH012 - FUNDAMENTOS DA CRÍTICA SOCIAL (GRADUAÇÃO) (Turma:1) AGRONOMIA - 4º PERÍODO: 3T1234 (14/08/2023 - 12/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH292 - HISTÓRIA DA FRONTEIRA SUL (GRADUAÇÃO) (Turma:3) AGRONOMIA - 1º PERÍODO: 5T12345 (14/08/2023 - 31/10/2023), 5T1234 (01/11/2023 - 14/12/2023), 5T123 (15/12/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS005 - DESENHO TÉCNICO (GRADUAÇÃO) (Turma:1) AGRONOMIA - 3º PERÍODO: 2T123 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS056 - ADMINISTRAÇÃO E ANÁLISE DE PROJETOS (GRADUAÇÃO) (Turma:1) AGRONOMIA - 8º PERÍODO: 3T1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS073 - TEORIA COOPERATIVISTA I (GRADUAÇÃO) (Turma:1) AGRONOMIA - 8º PERÍODO: 4M2345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS243 - ECONOMIA RURAL (GRADUAÇÃO) (Turma:1) AGRONOMIA - 6º PERÍODO: 2T123 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX080 - GEODÉSIA E SENSORIAMENTO REMOTO (GRADUAÇÃO) (Turma:1) AGRONOMIA - 6º PERÍODO: 5M12345 (14/08/2023 - 31/10/2023), 5M2345 (01/11/2023 - 15/12/2023), 5M234 (16/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX116 - GEOMORFOLOGIA E PEDOLOGIA (GRADUAÇÃO) (Turma:1) AGRONOMIA - 4º PERÍODO: 2T123 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX116 - GEOMORFOLOGIA E PEDOLOGIA (GRADUAÇÃO) (Turma:2) AGRONOMIA - 4º PERÍODO: 2T124 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX179 - CÁLCULO I (GRADUAÇÃO) (Turma:1) AGRONOMIA - 2º PERÍODO: 6T1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX190 - FÍSICA GERAL (GRADUAÇÃO) (Turma:1) AGRONOMIA - 2º PERÍODO: 6M1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX190 - FÍSICA GERAL (GRADUAÇÃO) (Turma:2) AGRONOMIA - 2º PERÍODO: 6M1235 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX431 - QUÍMICA ANALÍTICA (GRADUAÇÃO) (Turma:1) AGRONOMIA - optativa: 3M345 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIÊNCIA DA COMPUTAÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH290 - INICIAÇÃO À PRÁTICA CIENTÍFICA (GRADUAÇÃO) (Turma:5) CIÊNCIA DA COMPUTAÇÃO - 4º PERÍODO: 4N1234 (14/08/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH292 - HISTÓRIA DA FRONTEIRA SUL (GRADUAÇÃO) (Turma:2) CIÊNCIA DA COMPUTAÇÃO - 6º PERÍODO: 4T12345 (14/08/2023 - 22/11/2023), 4T12 (29/11/2023 - 29/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH293 - INTRODUÇÃO À FILOSOFIA (GRADUAÇÃO) (Turma:2) CIÊNCIA DA COMPUTAÇÃO - 1º PERÍODO: 2N1234 (14/08/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS238 - MEIO AMBIENTE, ECONOMIA E SOCIEDADE (GRADUAÇÃO) (Turma:2) CIÊNCIA DA COMPUTAÇÃO - 7º PERÍODO: 3N1234 (14/08/2023 - 12/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS239 - DIREITOS E CIDADANIA (GRADUAÇÃO) (Turma:2) CIÊNCIA DA COMPUTAÇÃO - 8º PERÍODO: 2T12345 (14/08/2023 - 13/11/2023), 2T12 (20/11/2023 - 20/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS580 - PLANEJAMENTO E GESTÃO DE PROJETOS (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 6º PERÍODO: 3T123 5T45 (14/08/2023 - 23/11/2023), 3T123 (24/11/2023 - 30/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN253 - CIRCUITOS DIGITAIS (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 2º PERÍODO: 2T45 3T123 (14/08/2023 - 20/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN254 - GRAFOS (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 4º PERÍODO: 3T123 5T45 (14/08/2023 - 23/11/2023), 3T123 (24/11/2023 - 30/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX003 - ALGORITMOS E PROGRAMAÇÃO (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 1º PERÍODO: 5N1234 (14/08/2023 - 14/12/2023), 7M123456 7T12 (15/12/2023 - 16/12/2023), 5N1234 (17/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX003 - ALGORITMOS E PROGRAMAÇÃO (GRADUAÇÃO) (Turma:2) CIÊNCIA DA COMPUTAÇÃO - 1º PERÍODO: 5N1234 (14/08/2023 - 14/12/2023), 7M123456 7T12 (15/12/2023 - 16/12/2023), 5N1234 (17/12/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX055 - PROBABILIDADE E ESTATÍSTICA (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 2º PERÍODO: 5T45 6T123 (14/08/2023 - 01/12/2023), 5T4 (07/12/2023 - 07/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX090 - BANCO DE DADOS I (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 4º PERÍODO: 4T123 6T45 (14/08/2023 - 24/11/2023), 4T12 (25/11/2023 - 29/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX091 - BANCO DE DADOS II (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 5º PERÍODO: 3N1234 (14/08/2023 - 12/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX098 - PROGRAMAÇÃO I (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 3º PERÍODO: 2N1234 (14/08/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX098 - PROGRAMAÇÃO I (GRADUAÇÃO) (Turma:2) CIÊNCIA DA COMPUTAÇÃO - 3º PERÍODO: 2N1234 (14/08/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX101 - LINGUAGENS FORMAIS E AUTÔMATOS (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 5º PERÍODO: 2N1234 (14/08/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX102 - ENGENHARIA DE SOFTWARE I (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 4º PERÍODO: 3T45 5T123 (14/08/2023 - 30/11/2023), 3T3 (01/12/2023 - 07/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX105 - REDES DE COMPUTADORES (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 6º PERÍODO: 2T45 5T123 (14/08/2023 - 30/11/2023), 2T4 (01/12/2023 - 07/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX107 - COMPUTAÇÃO GRÁFICA (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 7º PERÍODO: 5N1234 (14/08/2023 - 14/12/2023), 7M123456 7T12 (15/12/2023 - 16/12/2023), 5N1234 (17/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX108 - CONSTRUÇÃO DE COMPILADORES (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 6º PERÍODO: 2T123 6T45 (14/08/2023 - 17/11/2023), 2T123 6T4 (18/11/2023 - 24/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX1082 - TÓPICOS ESPECIAIS EM COMPUTAÇÃO XXXII (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - optativa: 4T123 5T45 (14/08/2023 - 30/11/2023), 4T1 (01/12/2023 - 07/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX1083 - TÓPICOS ESPECIAIS EM COMPUTAÇÃO XXXIII (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - optativa: 5N1234 (14/08/2023 - 14/12/2023), 7M123456 7T12 (15/12/2023 - 16/12/2023), 5N1234 (17/12/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX110 - SISTEMAS OPERACIONAIS (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 5º PERÍODO: 5N1234 (14/08/2023 - 14/12/2023), 7M123456 7T12 (15/12/2023 - 16/12/2023), 5N1234 (17/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX178 - CÁLCULO I (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 2º PERÍODO: 2T12 4T45 (14/08/2023 - 13/12/2023), 2T12 (18/12/2023 - 18/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX195 - GEOMETRIA ANALÍTICA (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 2º PERÍODO: 4T123 6T45 (14/08/2023 - 24/11/2023), 4T12 (29/11/2023 - 29/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX208 - INFORMÁTICA BÁSICA (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 1º PERÍODO: 3N1234 (14/08/2023 - 18/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX208 - INFORMÁTICA BÁSICA (GRADUAÇÃO) (Turma:2) CIÊNCIA DA COMPUTAÇÃO - 1º PERÍODO: 3N1234 (14/08/2023 - 18/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX210 - ESTATÍSTICA BÁSICA (GRADUAÇÃO) (Turma:2) CIÊNCIA DA COMPUTAÇÃO - 1º PERÍODO: 6N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX213 - MATEMÁTICA C (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 1º PERÍODO: 4N1234 (14/08/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX392 - CÁLCULO II (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 3º PERÍODO: 3N1234 (14/08/2023 - 12/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX395 - CÁLCULO NUMÉRICO (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 7º PERÍODO: 2N1234 (14/08/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX605 - ESTRUTURAS DE DADOS (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 2º PERÍODO: 2N1234 (14/08/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX605 - ESTRUTURAS DE DADOS (GRADUAÇÃO) (Turma:2) CIÊNCIA DA COMPUTAÇÃO - 2º PERÍODO: 3T45 5T123 (14/08/2023 - 30/11/2023), 3T4 (05/12/2023 - 05/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX605 - ESTRUTURAS DE DADOS (GRADUAÇÃO) (Turma:3) CIÊNCIA DA COMPUTAÇÃO - 2º PERÍODO: 3T45 5T123 (14/08/2023 - 30/11/2023), 3T4 (05/12/2023 - 05/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX606 - SISTEMAS DIGITAIS (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 3º PERÍODO: 5N1234 (14/08/2023 - 14/12/2023), 7M123456 7T12 (15/12/2023 - 16/12/2023), 5N1234 (21/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX607 - ÁLGEBRA LINEAR (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 5º PERÍODO: 4N1234 (14/08/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX608 - MATEMÁTICA DISCRETA (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 3º PERÍODO: 4N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX609 - PESQUISA E ORDENAÇÃO DE DADOS (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 3º PERÍODO: 6N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX612 - ORGANIZAÇÃO DE COMPUTADORES (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 4º PERÍODO: 23M45 2T123 4T45 (09/10/2023 - 09/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX613 - PROGRAMAÇÃO II (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 4º PERÍODO: 2T45 6T123 (14/08/2023 - 25/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX613 - PROGRAMAÇÃO II (GRADUAÇÃO) (Turma:2) CIÊNCIA DA COMPUTAÇÃO - 4º PERÍODO: 2T45 6T123 (14/08/2023 - 25/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX614 - TEORIA DA COMPUTAÇÃO (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 6º PERÍODO: 3T45 6T123 (14/08/2023 - 24/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX616 - ENGENHARIA DE SOFTWARE II (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 5º PERÍODO: 6N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX617 - LINGUAGENS DE PROGRAMAÇÃO (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 7º PERÍODO: 6N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX618 - INTELIGÊNCIA ARTIFICIAL (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 7º PERÍODO: 4N1234 (14/08/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX635 - TÓPICOS ESPECIAIS EM COMPUTAÇÃO XIII (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - optativa: 2N1234 (14/08/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX657 - TRABALHO DE CONCLUSÃO DE CURSO I (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 9º PERÍODO: 56M123 7M123456 (14/08/2023 - 02/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX658 - TRABALHO DE CONCLUSÃO DE CURSO II (GRADUAÇÃO) (Turma:1) CIÊNCIA DA COMPUTAÇÃO - 8º PERÍODO: 5M12 67M123456 (14/08/2023 - 02/12/2023), 5M1234 (03/12/2023 - 07/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA104 - PRODUÇÃO TEXTUAL ACADÊMICA (GRADUAÇÃO) (Turma:2) CIÊNCIA DA COMPUTAÇÃO - 2º PERÍODO: 4N1234 (14/08/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIÊNCIAS SOCIAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1325 - INTRODUÇÃO A PRÁTICAS FORMATIVAS (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - 2º PERÍODO: 2N1234 (16/10/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1333 - ANTROPOLOGIA II (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - 2º PERÍODO: 5N1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1334 - CIÊNCIA POLÍTICA II (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - 2º PERÍODO: 3N1234 (14/08/2023 - 24/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1388 - SOCIOLOGIA I (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - 2º PERÍODO: 4N1234 (14/08/2023 - 01/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1394 - SOCIOLOGIA III (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - 4º PERÍODO: 2N1234 (14/08/2023 - 24/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1395 - ANTROPOLOGIA IV (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - 4º PERÍODO: 5N1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1396 - CIÊNCIA POLÍTICA IV (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - 4º PERÍODO: 6N1234 (14/08/2023 - 01/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1397 - LABORATÓRIO DE PRÁTICA EM ENSINO I (Turma:1) CIÊNCIAS SOCIAIS - 4º PERÍODO: 3N1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1402 - METODOLOGIA DA PESQUISA QUALITATIVA (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - 6º PERÍODO: 2N1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1403 - METODOLOGIA DA PESQUISA QUANTITATIVA (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - 6º PERÍODO: 6N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1404 - LABORATÓRIO DE PRÁTICA EM ENSINO III (Turma:1) CIÊNCIAS SOCIAIS - 6º PERÍODO: 4N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1405 - SOCIOLOGIA DA EDUCAÇÃO (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - 6º PERÍODO: 3N1234 (14/08/2023 - 24/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1409 - TRABALHO DE CONCLUSÃO DE CURSO II (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - 8º PERÍODO: 7M1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1410 - ESTÁGIO CURRICULAR SUPERVISIONADO II (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - 8º PERÍODO: 3T2345 3N1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1420 - POLÍTICAS PÚBLICAS E PARTICIPAÇÃO SOCIAL (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - optativa: 4N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1433 - CLÁSSICOS DO PENSAMENTO SOCIAL BRASILEIRO (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - optativa: 4N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1457 - LABORATÓRIO DE PRÁTICA EM ENSINO V: TERRITÓRIOS EDUCATIVOS E A FORMAÇÃO INTEGRAL (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - 8º PERÍODO: 5N1234 (14/08/2023 - 04/11/2023), 5T34 5N1234 (06/11/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1460 - LABORATÓRIO DE PRÁTICA EM ENSINO V: TEMÁTICAS ABERTAS I (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - 8º PERÍODO: 5N1234 (14/08/2023 - 04/11/2023), 5M34 5N1234 (06/11/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1678 - SOCIOLOGIA V (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - 6º PERÍODO: 5N1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH176 - TRABALHO DE CONCLUSÃO DE CURSO II (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - 9º PERÍODO: 7T123456 7N12 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH292 - HISTÓRIA DA FRONTEIRA SUL (GRADUAÇÃO) (Turma:9) CIÊNCIAS SOCIAIS - 2º PERÍODO: 6N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA102 - LEITURA E PRODUÇÃO TEXTUAL I (GRADUAÇÃO) (Turma:1) CIÊNCIAS SOCIAIS - 2º PERÍODO: 2N1234 (14/08/2023 - 14/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENFERMAGEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCB019 - ANATOMIA II (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 2º PERÍODO: 5T12345 (14/08/2023 - 21/10/2023), 5T1234 (23/10/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCB019 - ANATOMIA II (GRADUAÇÃO) (Turma:2) ENFERMAGEM - 4º PERÍODO: 6T1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCB029 - MICROBIOLOGIA (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 4º PERÍODO: 5T12345 (14/08/2023 - 16/09/2023), 5T1234 (17/09/2023 - 21/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCB064 - FISIOLOGIA II (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 2º PERÍODO: 2T1234 (14/08/2023 - 16/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCB064 - FISIOLOGIA II (GRADUAÇÃO) (Turma:2) ENFERMAGEM - 4º PERÍODO: 2M2345 (14/08/2023 - 16/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCB076 - IMUNOLOGIA (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 4º PERÍODO: 5T12345 (23/10/2023 - 25/11/2023), 5T1234 (26/11/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH012 - FUNDAMENTOS DA CRÍTICA SOCIAL (GRADUAÇÃO) (Turma:2) ENFERMAGEM - 4º PERÍODO: 2T1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX212 - MATEMÁTICA B (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 2º PERÍODO: 3M2345 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA011 - GESTÃO E GERENCIAMENTO EM SAÚDE E ENFERMAGEM (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 8º PERÍODO: 34M2345 5T1234 (14/08/2023 - 16/09/2023), 34M2345 (17/09/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA012 - SAÚDE COLETIVA II (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 4º PERÍODO: 4T1234 (14/08/2023 - 11/11/2023), 4T12 (12/11/2023 - 26/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA014 - PATOLOGIA (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 4º PERÍODO: 3T1234 (14/08/2023 - 16/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA017 - FUNDAMENTOS PARA O CUIDADO PROFISSIONAL I (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 4º PERÍODO: 345M2345 (14/08/2023 - 31/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA021 - O CUIDADO NO PROCESSO DE VIVER HUMANO I (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 6º PERÍODO: 2345M2345 246T1234 (14/08/2023 - 13/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA023 - O CUIDADO DE ENFERMAGEM NA SAÚDE MENTAL (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 8º PERÍODO: 46T1234 (14/08/2023 - 08/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA024 - O CUIDADO DE ENFERMAGEM AO ADULTO E IDOSO EM CONDIÇÃO CRÍTICA DE SAÚDE (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 8º PERÍODO: 25M2345 3T12345 (14/08/2023 - 30/09/2023), 2M2345 3T1234 (01/10/2023 - 08/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA025 - PESQUISA EM ENFERMAGEM (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 8º PERÍODO: 2T12345 (14/08/2023 - 16/09/2023), 6M12345 25T12345 (17/09/2023 - 30/09/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA0303 - INTRODUÇÃO À GESTÃO E GERENCIAMENTO EM SAÚDE E ENFERMAGEM (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 2º PERÍODO: 34T12345 (14/08/2023 - 30/09/2023), 34T1234 (01/10/2023 - 27/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA0304 - A ENFERMAGEM NO CONTEXTO DA VIGILÂNCIA EM SAÚDE COLETIVA (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 2º PERÍODO: 4M2345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA0305 - A ENFERMAGEM NO CONTEXTO DA SAÚDE COLETIVA (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 2º PERÍODO: 5M2345 (14/08/2023 - 21/10/2023), 5M12345 (22/10/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA044 - ESTUDOS INTERDISCIPLINARES I (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 6º PERÍODO: 35T12345 (14/08/2023 - 16/09/2023), 3T12345 5T1234 (17/09/2023 - 07/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA047 - ESTÁGIO CURRICULAR SUPERVISIONADO II (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 10º PERÍODO: 23456T123456 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA049 - TRABALHO DE CONCLUSÃO DE CURSO II (GRADUAÇÃO) (Turma:1) ENFERMAGEM - 10º PERÍODO: 3M2345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGENHARIA AMBIENTAL E SANITÁRIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA321 - RECUPERAÇÃO DE ÁREAS DEGRADADAS (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - optativa: 4T123 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCA322 - MECÂNICA DOS SOLOS (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 6º PERÍODO: 34T12 (14/08/2023 - 16/12/2023), 4T12 (17/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCB128 - MICROBIOLOGIA AMBIENTAL (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 4º PERÍODO: 3M123 (14/08/2023 - 16/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCB184 - ECOLOGIA APLICADA (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 2º PERÍODO: 5T345 (14/08/2023 - 26/10/2023), 5T3456 (27/10/2023 - 14/12/2023), 5T345 (18/12/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS241 - DIREITO AMBIENTAL (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 8º PERÍODO: 5T12 5N1234 (14/08/2023 - 19/08/2023), 5T12 (21/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS253 - GESTÃO ECONÔMICA (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 8º PERÍODO: 2M45 (14/08/2023 - 16/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS254 - PLANEJAMENTO AMBIENTAL E URBANISMO (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 8º PERÍODO: 3M123 (14/08/2023 - 16/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN011 - CIRCUITOS ELÉTRICOS E CONVERSÃO ELETROMECÂNICA DE ENERGIA (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 6º PERÍODO: 5M45 6T45 2N1234 (14/08/2023 - 19/08/2023), 5M45 6T45 (21/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN026 - TRATAMENTO DE ÁGUAS RESIDUÁRIAS (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 8º PERÍODO: 4M34 6M12 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN042 - HIDROLOGIA (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 6º PERÍODO: 23T34 (14/08/2023 - 16/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN096 - MECÂNICA E RESISTÊNCIA DOS MATERIAIS (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 4º PERÍODO: 2M12 6M345 (14/08/2023 - 15/12/2023), 6M456 (16/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN097 - MECÂNICA DOS FLUIDOS (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 4º PERÍODO: 4M45 5M12 (14/08/2023 - 25/11/2023), 4M456 5M12 (26/11/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN098 - TERMODINÂMICA (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 4º PERÍODO: 2M345 (14/08/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN103 - QUALIDADE DE ÁGUA (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 6º PERÍODO: 6T123 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN104 - HIDRÁULICA II (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 6º PERÍODO: 5T123 (14/08/2023 - 11/11/2023), 5T1236 (13/11/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN109 - PLANEJAMENTO E GESTÃO DE RECURSOS HÍDRICOS (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 8º PERÍODO: 5M345 (14/08/2023 - 30/09/2023), 5M3456 (02/10/2023 - 25/11/2023), 5M345 (26/11/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN110 - TRATAMENTO DE RESÍDUOS SÓLIDOS (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 8º PERÍODO: 6M456 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN111 - ENERGIA SOLAR E EÓLICA (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 8º PERÍODO: 3M45 4M12 (14/08/2023 - 16/12/2023), 3M45 (17/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN112 - TRABALHO DE CONCLUSÃO DE CURSO I (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 9º PERÍODO: 5T12 (14/08/2023 - 25/11/2023), 57T12 (26/11/2023 - 09/12/2023), 5T12 (10/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN113 - ENERGIA HÍDRICA (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 9º PERÍODO: 4T2345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN118 - TRABALHO DE CONCLUSÃO DE CURSO II (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 10º PERÍODO: 6T1 6N123 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN119 - ESTÁGIO CURRICULAR (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 10º PERÍODO: 256T456 4N123 (14/08/2023 - 09/12/2023), 2567T456 4N123 (10/12/2023 - 16/12/2023), 256T456 4N123 (17/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN167 - SAÚDE AMBIENTAL (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 8º PERÍODO: 5M12 (14/08/2023 - 25/11/2023), 5M126 (26/11/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN195 - SISTEMAS DE ÁGUA (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - optativa: 2M123 (14/08/2023 - 16/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN196 - SISTEMAS DE ESGOTO (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - optativa: 2T123 (14/08/2023 - 16/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN204 - TÓPICOS ESPECIAIS EM SANEAMENTO (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - optativa: 7M123 5T456 (14/08/2023 - 09/09/2023), 5T456 (11/09/2023 - 11/11/2023), 5T45 (13/11/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX067 - FÍSICA EXPERIMENTAL II (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 4º PERÍODO: 5M34 (14/08/2023 - 25/11/2023), 5M345 (26/11/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX178 - CÁLCULO I (GRADUAÇÃO) (Turma:2) ENGENHARIA AMBIENTAL E SANITÁRIA - 2º PERÍODO: 2T34 4T12 (14/08/2023 - 13/12/2023), 2T34 (14/12/2023 - 18/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX186 - FÍSICA I (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 2º PERÍODO: 35T12 (14/08/2023 - 14/12/2023), 35T126 (15/12/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX206 - QUÍMICA ORGÂNICA (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 2º PERÍODO: 6T123 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX210 - ESTATÍSTICA BÁSICA (GRADUAÇÃO) (Turma:16) ENGENHARIA AMBIENTAL E SANITÁRIA - 2º PERÍODO: 4T34 6T45 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX219 - FÍSICA III (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 4º PERÍODO: 3M45 6M12 (14/08/2023 - 16/12/2023), 6M12 (22/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX296 - CARTOGRAFIA (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 4º PERÍODO: 4M123 (14/08/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX297 - METEOROLOGIA E CLIMATOLOGIA (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 6º PERÍODO: 4T345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX298 - CINÉTICA APLICADA E CÁLCULO DE REATORES (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 6º PERÍODO: 3M123 (14/08/2023 - 16/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX395 - CÁLCULO NUMÉRICO (GRADUAÇÃO) (Turma:2) ENGENHARIA AMBIENTAL E SANITÁRIA - 6º PERÍODO: 2T12 5T45 (14/08/2023 - 09/12/2023), 2T126 5T45 (11/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX404 - CÁLCULO III (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - 4º PERÍODO: 2T34 3T12 (14/08/2023 - 16/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX458 - TÓPICOS ESPECIAIS EM GEOTECNIA (GRADUAÇÃO) (Turma:1) ENGENHARIA AMBIENTAL E SANITÁRIA - optativa: 3T345 (14/08/2023 - 16/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX607 - ÁLGEBRA LINEAR (GRADUAÇÃO) (Turma:2) ENGENHARIA AMBIENTAL E SANITÁRIA - 2º PERÍODO: 2T12 3T34 (14/08/2023 - 16/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILOSOFIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH837 - ESTÁGIO CURRICULAR SUPERVISIONADO I (GRADUAÇÃO) (Turma:1) FILOSOFIA - 6º PERÍODO: 3T56 3N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH839 - FUNDAMENTOS HISTÓRICOS, SOCIOLÓGICOS E FILOSÓFICOS DA EDUCAÇÃO (GRADUAÇÃO) (Turma:2) FILOSOFIA - 6º PERÍODO: 2N1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH843 - ESTÁGIO CURRICULAR SUPERVISIONADO III (GRADUAÇÃO) (Turma:1) FILOSOFIA - 8º PERÍODO: 7T123456 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH844 - FILOSOFIA DA EDUCAÇÃO (GRADUAÇÃO) (Turma:1) FILOSOFIA - 8º PERÍODO: 4N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH845 - FILOSOFIA MEDIEVAL (GRADUAÇÃO) (Turma:1) FILOSOFIA - 2º PERÍODO: 5T56 5N1234 (17/08/2023 - 31/08/2023), 5T56 5N1234 (14/09/2023 - 05/10/2023), 5T56 5N1234 (19/10/2023 - 26/10/2023), 356T56 356N1234 (19/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH847 - FILOSOFIA CONTEMPORÂNEA (GRADUAÇÃO) (Turma:1) FILOSOFIA - 4º PERÍODO: 2N1234 (14/08/2023 - 18/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH848 - ÉTICA I (GRADUAÇÃO) (Turma:1) FILOSOFIA - 2º PERÍODO: 2N1234 (14/08/2023 - 18/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH850 - FILOSOFIA POLÍTICA I (GRADUAÇÃO) (Turma:1) FILOSOFIA - 4º PERÍODO: 6N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH852 - ESTÉTICA (GRADUAÇÃO) (Turma:1) FILOSOFIA - 8º PERÍODO: 2N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH853 - FILOSOFIA DA CIÊNCIA (GRADUAÇÃO) (Turma:1) FILOSOFIA - 8º PERÍODO: 6N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH854 - FILOSOFIA DA LINGUAGEM (GRADUAÇÃO) (Turma:1) FILOSOFIA - 6º PERÍODO: 7M1 5N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH856 - METAFÍSICA (GRADUAÇÃO) (Turma:1) FILOSOFIA - 3º PERÍODO: 6N1234 (14/08/2023 - 15/12/2023), 7N1234 (16/12/2023 - 16/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH857 - TEORIA DO CONHECIMENTO (GRADUAÇÃO) (Turma:1) FILOSOFIA - 6º PERÍODO: 4N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH859 - TRABALHO DE CONCLUSÃO DE CURSO II (GRADUAÇÃO) (Turma:1) FILOSOFIA - 8º PERÍODO: 2M1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH860 - TRABALHO DE CONCLUSÃO DE CURSO III (GRADUAÇÃO) (Turma:1) FILOSOFIA - 9º PERÍODO: 2T1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX211 - MATEMÁTICA A (GRADUAÇÃO) (Turma:2) FILOSOFIA - 2º PERÍODO: 4N1234 (14/08/2023 - 13/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA103 - LEITURA E PRODUÇÃO TEXTUAL II (GRADUAÇÃO) (Turma:3) FILOSOFIA - 2º PERÍODO: 3N1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEOGRAFIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCB295 - BIOGEOGRAFIA (GRADUAÇÃO) (Turma:1) GEOGRAFIA - 6º PERÍODO: 2T123456 2N1234 (14/08/2023 - 02/09/2023), 2N1234 (03/09/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH290 - INICIAÇÃO À PRÁTICA CIENTÍFICA (GRADUAÇÃO) (Turma:8) GEOGRAFIA - 2º PERÍODO: 4N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH292 - HISTÓRIA DA FRONTEIRA SUL (GRADUAÇÃO) (Turma:10) GEOGRAFIA - 8º PERÍODO: 5N1234 (14/08/2023 - 07/12/2023), 7M2345 (09/12/2023 - 09/12/2023), 5N1234 (14/12/2023 - 14/12/2023), 7M2345 (16/12/2023 - 16/12/2023), 5N1234 (21/12/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH293 - INTRODUÇÃO À FILOSOFIA (GRADUAÇÃO) (Turma:6) GEOGRAFIA - 4º PERÍODO: 6N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH620 - GEOGRAFIA ECONÔMICA (GRADUAÇÃO) (Turma:1) GEOGRAFIA - 2º PERÍODO: 7M123456 2N1234 (14/08/2023 - 31/08/2023), 7M12 (02/09/2023 - 02/09/2023), 2N1234 (04/09/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH622 - GEOGRAFIA RURAL (GRADUAÇÃO) (Turma:1) GEOGRAFIA - 6º PERÍODO: 5N1234 (14/08/2023 - 02/09/2023), 7M123456 5N1234 (04/09/2023 - 16/10/2023), 5N1234 (17/10/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH623 - GEOGRAFIA DOS SOLOS (GRADUAÇÃO) (Turma:1) GEOGRAFIA - 4º PERÍODO: 5N1234 (14/08/2023 - 08/12/2023), 7M1234 5N1234 (09/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH626 - DIDÁTICA EM GEOGRAFIA (GRADUAÇÃO) (Turma:1) GEOGRAFIA - 6º PERÍODO: 3N1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH627 - ESTÁGIO CURRICULAR SUPERVISIONADO: PRÁTICA DE ENSINO EM GEOGRAFIA I (GRADUAÇÃO) (Turma:1) GEOGRAFIA - 6º PERÍODO: 4N1234 (14/08/2023 - 22/09/2023), 4M2345 4N1234 (23/09/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH628 - GEOGRAFIA CULTURAL (GRADUAÇÃO) (Turma:1) GEOGRAFIA - 8º PERÍODO: 3T12345 3N1234 (14/08/2023 - 31/08/2023), 3N1234 (04/09/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH632 - ESTÁGIO CURRICULAR SUPERVISIONADO: PRÁTICA DE ENSINO EM GEOGRAFIA III (GRADUAÇÃO) (Turma:1) GEOGRAFIA - 8º PERÍODO: 2N1234 (14/08/2023 - 22/09/2023), 2M2345 2N1234 (23/09/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH633 - TRABALHO DE CONCLUSÃO DO CURSO I (GRADUAÇÃO) (Turma:1) GEOGRAFIA - 8º PERÍODO: 4N1234 (14/08/2023 - 14/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH634 - GEOGRAFIA DE SANTA CATARINA (GRADUAÇÃO) (Turma:1) GEOGRAFIA - 8º PERÍODO: 6N1234 (14/08/2023 - 29/09/2023), 7M123456 6N1234 (30/09/2023 - 14/10/2023), 6N1234 (16/10/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH637 - TRABALHO DE CONCLUSÃO DO CURSO II (GRADUAÇÃO) (Turma:1) GEOGRAFIA - 9º PERÍODO: 7T1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX210 - ESTATÍSTICA BÁSICA (GRADUAÇÃO) (Turma:8) GEOGRAFIA - 2º PERÍODO: 5N1234 (14/08/2023 - 07/12/2023), 7M2345 (09/12/2023 - 09/12/2023), 5N1234 (14/12/2023 - 14/12/2023), 7M2345 (16/12/2023 - 16/12/2023), 5N1234 (21/12/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX556 - CLIMATOLOGIA (GRADUAÇÃO) (Turma:1) GEOGRAFIA - 2º PERÍODO: 6N1234 (14/08/2023 - 29/09/2023), 7M123456 6N1234 (30/09/2023 - 14/10/2023), 6N1234 (16/10/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX557 - CARTOGRAFIA SISTEMÁTICA (GRADUAÇÃO) (Turma:1) GEOGRAFIA - 2º PERÍODO: 3N1234 (14/08/2023 - 05/09/2023), 7M123456 3N1234 (06/09/2023 - 16/09/2023), 7M12 3N1234 (18/09/2023 - 23/09/2023), 3N1234 (25/09/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX559 - REGIÕES E REDES (GRADUAÇÃO) (Turma:1) GEOGRAFIA - 4º PERÍODO: 7M123456 3N1234 (14/08/2023 - 31/08/2023), 7M12 (02/09/2023 - 02/09/2023), 3N1234 (04/09/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HISTÓRIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH290 - INICIAÇÃO À PRÁTICA CIENTÍFICA (GRADUAÇÃO) (Turma:15) HISTÓRIA - 2º PERÍODO: 2N1234 (14/08/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH291 - INTRODUÇÃO AO PENSAMENTO SOCIAL (GRADUAÇÃO) (Turma:3) HISTÓRIA - 2º PERÍODO: 3N1234 (14/08/2023 - 12/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH365 - HISTÓRIA ANTIGA II (GRADUAÇÃO) (Turma:1) HISTÓRIA - 2º PERÍODO: 5N1234 (17/08/2023 - 07/12/2023), 7M2345 5N1234 (09/12/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH366 - HISTÓRIA INDÍGENA (GRADUAÇÃO) (Turma:1) HISTÓRIA - 2º PERÍODO: 4N1234 (16/08/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH367 - TEORIA E METODOLOGIA DO ENSINO DE HISTÓRIA (GRADUAÇÃO) (Turma:1) HISTÓRIA - 2º PERÍODO: 6N1234 (18/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH371 - HISTÓRIA MODERNA I (GRADUAÇÃO) (Turma:1) HISTÓRIA - 4º PERÍODO: 5N1234 (17/08/2023 - 07/12/2023), 7M1234 5N1234 (09/12/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH372 - TEORIA E METODOLOGIA DA HISTÓRIA II (GRADUAÇÃO) (Turma:1) HISTÓRIA - 4º PERÍODO: 3N1234 (15/08/2023 - 12/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH373 - HISTÓRIA DA AMÉRICA I (GRADUAÇÃO) (Turma:1) HISTÓRIA - 4º PERÍODO: 6N1234 (18/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH381 - HISTÓRIA DO BRASIL II (GRADUAÇÃO) (Turma:1) HISTÓRIA - 6º PERÍODO: 7M2345 5N1234 (14/08/2023 - 21/08/2023), 7M2345 5N1234 (26/08/2023 - 02/09/2023), 5N1234 (07/09/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH382 - ESTÁGIO CURRICULAR SUPERVISIONADO I (GRADUAÇÃO) (Turma:1) HISTÓRIA - 6º PERÍODO: 2M23 2N1234 (14/08/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH387 - HISTÓRIA DA ÁFRICA (GRADUAÇÃO) (Turma:1) HISTÓRIA - 8º PERÍODO: 3N1234 (15/08/2023 - 12/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH388 - HISTÓRIA DO BRASIL IV (GRADUAÇÃO) (Turma:1) HISTÓRIA - 8º PERÍODO: 6N1234 (18/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH389 - SEMINÁRIO DE TRABALHO DE CONCLUSÃO DE CURSO I (GRADUAÇÃO) (Turma:1) HISTÓRIA - 8º PERÍODO: 2N1234 (14/08/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH390 - ESTÁGIO CURRICULAR SUPERVISIONADO III (GRADUAÇÃO) (Turma:1) HISTÓRIA - 8º PERÍODO: 5M12345 5N1234 (14/08/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH459 - HISTÓRIA MEDIEVAL II (GRADUAÇÃO) (Turma:1) HISTÓRIA - optativa: 4N1234 (16/08/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH467 - SEMINÁRIO TEMÁTICO EM HISTÓRIA III (GRADUAÇÃO) (Turma:1) HISTÓRIA - optativa: 4N1234 (16/08/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA108 - LÍNGUA BRASILEIRA DE SINAIS (LIBRAS) (GRADUAÇÃO) (Turma:1) HISTÓRIA - 7º PERÍODO: 3N1234 (14/08/2023 - 12/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LETRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1031 - EDUCAÇÃO ESPECIAL E DIVERSIDADE (GRADUAÇÃO) (Turma:2) LETRAS - 6º PERÍODO: 4N1234 (14/08/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH290 - INICIAÇÃO À PRÁTICA CIENTÍFICA (GRADUAÇÃO) (Turma:14) LETRAS - 2º PERÍODO: 3N1234 (29/08/2023 - 12/12/2023), 7M2345 3N1234 (16/12/2023 - 19/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH293 - INTRODUÇÃO À FILOSOFIA (GRADUAÇÃO) (Turma:5) LETRAS - 2º PERÍODO: 5N1234 (14/08/2023 - 07/12/2023), 5T1234 5N1234 (08/12/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS238 - MEIO AMBIENTE, ECONOMIA E SOCIEDADE (GRADUAÇÃO) (Turma:4) LETRAS - 2º PERÍODO: 2N1234 (14/08/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA041 - ESTUDOS AVANÇADOS EM LÍNGUA ESPANHOLA III: PRÁTICA ORAL (GRADUAÇÃO) (Turma:1) LETRAS - 10º PERÍODO: 4T1234 45N1234 (16/08/2023 - 02/09/2023), 45N1234 (06/09/2023 - 05/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA043 - LITERATURAS CATARINENSE, PARANAENSE E SUL-RIOGRANDENSE (GRADUAÇÃO) (Turma:1) LETRAS - 10º PERÍODO: 2N1234 (25/09/2023 - 11/12/2023), 2T12 2N1234 (16/12/2023 - 18/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA054 - ESTÁGIO CURRICULAR SUPERVISIONADO EM LÍNGUA ESPANHOLA V (GRADUAÇÃO) (Turma:1) LETRAS - 10º PERÍODO: 3T1234 (15/08/2023 - 29/08/2023), 7M12345 3N1234 (05/09/2023 - 14/10/2023), 3N1234 (17/10/2023 - 21/11/2023), 3T12345 3N1234 (28/11/2023 - 19/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA059 - ESTÁGIO CURRICULAR SUPERVISIONADO EM LÍNGUA PORTUGUESA V (GRADUAÇÃO) (Turma:1) LETRAS - 10º PERÍODO: 6N1234 (18/08/2023 - 18/10/2023), 7M2345 (21/10/2023 - 21/10/2023), 6N1234 (03/11/2023 - 03/11/2023), 7M2345 6T12345 6N1234 (10/11/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA061 - TRABALHO DE CONCLUSÃO DE CURSO II (GRADUAÇÃO) (Turma:1) LETRAS - 9º PERÍODO: 3T123456 (15/08/2023 - 19/09/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA104 - PRODUÇÃO TEXTUAL ACADÊMICA (GRADUAÇÃO) (Turma:5) LETRAS - ESPECIAL TODOS OS CURSOS: 4T12345 (14/08/2023 - 25/11/2023), 4T12 (29/11/2023 - 29/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA168 - VARIAÇÃO LINGUÍSTICA E ENSINO (GRADUAÇÃO) (Turma:1) LETRAS - optativa: 7M2345 4N1234 (28/10/2023 - 04/11/2023), 4N1234 (08/11/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA358 - LINGUÍSTICA TEXTUAL (GRADUAÇÃO) (Turma:1) LETRAS - 2º PERÍODO: 7M123456 34N1234 (15/08/2023 - 22/08/2023), 4N1234 (29/08/2023 - 04/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA359 - TEORIA E CRÍTICA LITERÁRIA (GRADUAÇÃO) (Turma:1) LETRAS - 2º PERÍODO: 4N1234 (11/10/2023 - 06/12/2023), 7M23 4N1234 (09/12/2023 - 13/12/2023), 4N1234 (20/12/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA360 - ESTUDOS DA LÍNGUA ESPANHOLA II (GRADUAÇÃO) (Turma:1) LETRAS - 2º PERÍODO: 6N1234 (18/08/2023 - 01/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA364 - LITERATURA PARA CRIANÇAS E JOVENS (GRADUAÇÃO) (Turma:1) LETRAS - 4º PERÍODO: 6N1234 (18/08/2023 - 01/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA365 - FUNDAMENTOS TEÓRICO-METODOLÓGICOS DO ENSINO DE LÍNGUA PORTUGUESA (GRADUAÇÃO) (Turma:1) LETRAS - 4º PERÍODO: 2N1234 (14/08/2023 - 09/10/2023), 7M23 2N1234 (14/10/2023 - 16/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA366 - ESTUDOS DA LÍNGUA PORTUGUESA II: MORFOLOGIA (GRADUAÇÃO) (Turma:1) LETRAS - 4º PERÍODO: 4N1234 (16/08/2023 - 18/10/2023), 4N12 (25/10/2023 - 25/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA367 - LITERATURA ESPANHOLA II (GRADUAÇÃO) (Turma:1) LETRAS - 4º PERÍODO: 2N1234 (23/10/2023 - 23/10/2023), 24N1234 (30/10/2023 - 29/11/2023), 4N12 (06/12/2023 - 06/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA368 - FONÉTICA E FONOLOGIA DA LÍNGUA ESPANHOLA (GRADUAÇÃO) (Turma:1) LETRAS - 4º PERÍODO: 5N1234 (17/08/2023 - 14/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA373 - ESTÁGIO CURRICULAR SUPERVISIONADO EM LÍNGUA PORTUGUESA I (Turma:1) LETRAS - 6º PERÍODO: 7M12345 7T1234 6N1234 (18/08/2023 - 22/09/2023), 3N1234 (28/11/2023 - 28/11/2023), 7M2345 7T1234 3N1234 (02/12/2023 - 09/12/2023), 7M2345 7T1234 3N1234 6N12 (12/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA374 - LINGUÍSTICA APLICADA AO ENSINO DE LÍNGUA PORTUGUESA (GRADUAÇÃO) (Turma:1) LETRAS - 6º PERÍODO: 2T56 2N1234 (30/10/2023 - 09/12/2023), 2N1234 (11/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA375 - LINGUÍSTICA APLICADA AO ENSINO E APRENDIZAGEM DA LÍNGUA ESPANHOLA (GRADUAÇÃO) (Turma:1) LETRAS - 6º PERÍODO: 2N1234 (14/08/2023 - 17/10/2023), 2N12 (23/10/2023 - 23/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA376 - ESTUDOS DA LÍNGUA PORTUGUESA IV: SINTAXE (GRADUAÇÃO) (Turma:1) LETRAS - 6º PERÍODO: 6N1234 (29/09/2023 - 01/12/2023), 6N12 (08/12/2023 - 08/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA377 - LITERATURA HISPANO-AMERICANA II (GRADUAÇÃO) (Turma:1) LETRAS - 6º PERÍODO: 5N1234 (17/08/2023 - 14/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA378 - PRÁTICA DE TEXTOS EM LÍNGUA ESPANHOLA (GRADUAÇÃO) (Turma:1) LETRAS - 6º PERÍODO: 3N1234 (15/08/2023 - 21/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA387 - ESTÁGIO CURRICULAR SUPERVISIONADO EM LÍNGUA ESPANHOLA I (Turma:1) LETRAS - 8º PERÍODO: 6N1234 (18/08/2023 - 01/12/2023), 7M123456 7T123456 46N1234 (06/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA388 - PROJETOS DE EXTENSÃO II (GRADUAÇÃO) (Turma:1) LETRAS - 8º PERÍODO: 3N1234 (15/08/2023 - 19/09/2023), 7M23 3N1234 (23/09/2023 - 03/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA389 - DIVERSIDADE LINGUÍSTICA (GRADUAÇÃO) (Turma:1) LETRAS - 8º PERÍODO: 3N1234 (10/10/2023 - 12/12/2023), 3N12 (19/12/2023 - 19/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA390 - ENUNCIAÇÃO E DISCURSO (GRADUAÇÃO) (Turma:1) LETRAS - 8º PERÍODO: 4N1234 (14/08/2023 - 29/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA391 - LITERATURA BRASILEIRA II (GRADUAÇÃO) (Turma:1) LETRAS - 8º PERÍODO: 2N1234 (14/08/2023 - 20/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA392 - SINTAXE DA LÍNGUA ESPANHOLA I (GRADUAÇÃO) (Turma:1) LETRAS - 8º PERÍODO: 5N1234 (17/08/2023 - 14/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA528 - TEMAS ESPECIAIS DE LITERATURA BRASILEIRA: POÉTICAS CONTEMPORÂNEAS (GRADUAÇÃO) (Turma:1) LETRAS - optativa: 5N1234 (19/10/2023 - 07/12/2023), 5N12 (14/12/2023 - 14/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA552 - TÓPICOS ESPECIAIS EM LITERATURA III (GRADUAÇÃO) (Turma:1) LETRAS - optativa: 2T12345 3456T1234 (21/08/2023 - 30/08/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LETRAS - PIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH293 - INTRODUÇÃO À FILOSOFIA (GRADUAÇÃO) (Turma:4) LETRAS - PIN: 4N1234 (14/08/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS011 - MEIO AMBIENTE, ECONOMIA E SOCIEDADE (GRADUAÇÃO) (Turma:1) LETRAS - PIN: 2T1234 (14/08/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS239 - DIREITOS E CIDADANIA (GRADUAÇÃO) (Turma:10) LETRAS - PIN: 3N1234 (14/08/2023 - 12/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX006 - ESTATÍSTICA BÁSICA (GRADUAÇÃO) (Turma:2) LETRAS - PIN: 5N1234 (14/08/2023 - 07/12/2023), 7M2345 5N1234 (09/12/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX212 - MATEMÁTICA B (GRADUAÇÃO) (Turma:3) LETRAS - PIN: 2N1234 (14/08/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA004 - LEITURA E PRODUÇÃO TEXTUAL II (GRADUAÇÃO) (Turma:3) LETRAS - PIN: 4N1234 (14/08/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LETRAS - PROIMIGRANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA004 - LEITURA E PRODUÇÃO TEXTUAL II (GRADUAÇÃO) (Turma:2) LETRAS - PROIMIGRANTE: 4T1234 (14/08/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATEMÁTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH293 - INTRODUÇÃO À FILOSOFIA (GRADUAÇÃO) (Turma:7) MATEMÁTICA - 2º PERÍODO: 3N1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX1000 - INTRODUÇÃO ÀS EQUAÇÕES DIFERENCIAIS PARCIAIS (GRADUAÇÃO) (Turma:1) MATEMÁTICA - optativa: 5N1234 (14/08/2023 - 22/09/2023), 7M2345 (23/09/2023 - 23/09/2023), 5N1234 (25/09/2023 - 20/10/2023), 7M2345 (21/10/2023 - 21/10/2023), 5N1234 (22/10/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX209 - COMPUTAÇÃO BÁSICA (GRADUAÇÃO) (Turma:1) MATEMÁTICA - 6º PERÍODO: 5N1234 (14/08/2023 - 07/12/2023), 7M2345 (09/12/2023 - 09/12/2023), 5N1234 (14/12/2023 - 14/12/2023), 7M2345 (16/12/2023 - 16/12/2023), 5N1234 (21/12/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX509 - GEOMETRIA ESPACIAL (GRADUAÇÃO) (Turma:1) MATEMÁTICA - 2º PERÍODO: 4N1234 (14/08/2023 - 10/11/2023), 4N1234 (11/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX970 - ARITMÉTICA I (GRADUAÇÃO) (Turma:1) MATEMÁTICA - 2º PERÍODO: 2N1234 (14/08/2023 - 06/11/2023), 2N1234 (04/12/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX971 - FUNDAMENTOS DE MATEMÁTICA (GRADUAÇÃO) (Turma:1) MATEMÁTICA - 2º PERÍODO: 6N1234 (14/08/2023 - 10/11/2023), 6N1234 (04/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX976 - LABORATÓRIO DE ENSINO DE MATEMÁTICA III (GRADUAÇÃO) (Turma:1) MATEMÁTICA - 4º PERÍODO: 6N1234 (14/08/2023 - 10/11/2023), 6N1234 (04/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX977 - CÁLCULO B (GRADUAÇÃO) (Turma:1) MATEMÁTICA - 4º PERÍODO: 5N1234 (14/08/2023 - 01/12/2023), 5N1234 (14/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX978 - ÁLGEBRA LINEAR I (GRADUAÇÃO) (Turma:1) MATEMÁTICA - 4º PERÍODO: 3N1234 (14/08/2023 - 10/11/2023), 3N1234 (04/12/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX979 - TECNOLOGIAS NA EDUCAÇÃO MATEMÁTICA (GRADUAÇÃO) (Turma:1) MATEMÁTICA - 4º PERÍODO: 2N1234 (14/08/2023 - 06/11/2023), 2N1234 (04/12/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX984 - EQUAÇÕES DIFERENCIAIS ORDINÁRIAS (GRADUAÇÃO) (Turma:1) MATEMÁTICA - 6º PERÍODO: 2N1234 (14/08/2023 - 06/11/2023), 2N1234 (04/12/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX985 - TENDÊNCIAS EM EDUCAÇÃO MATEMÁTICA (GRADUAÇÃO) (Turma:1) MATEMÁTICA - 6º PERÍODO: 4N1234 (14/08/2023 - 10/11/2023), 4N1234 (11/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX990 - ESTÁGIO CURRICULAR SUPERVISIONADO III (GRADUAÇÃO) (Turma:1) MATEMÁTICA - 8º PERÍODO: 2T1234 3N1234 (14/08/2023 - 08/12/2023), 3N1234 (09/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX991 - ANÁLISE MATEMÁTICA PARA LICENCIATURA (GRADUAÇÃO) (Turma:1) MATEMÁTICA - 8º PERÍODO: 4N1234 (14/08/2023 - 10/11/2023), 4N1234 (11/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX992 - TRABALHO DE CONCLUSÃO DE CURSO I (GRADUAÇÃO) (Turma:1) MATEMÁTICA - 8º PERÍODO: 6N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX993 - TÓPICOS DE MATEMÁTICA DISCRETA (GRADUAÇÃO) (Turma:1) MATEMÁTICA - 8º PERÍODO: 2N1234 (02/10/2023 - 10/11/2023), 2N123 (11/11/2023 - 17/11/2023), 2N123 (11/12/2023 - 11/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEX994 - HISTÓRIA DA MATEMÁTICA (GRADUAÇÃO) (Turma:1) MATEMÁTICA - 8º PERÍODO: 2N1234 (14/08/2023 - 29/09/2023), 2N1234 (27/11/2023 - 08/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH290 - INICIAÇÃO À PRÁTICA CIENTÍFICA (GRADUAÇÃO) (Turma:13) MEDICINA - 1º PERÍODO: 5M12345 (14/08/2023 - 08/12/2023), 5M12 (11/12/2023 - 14/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH293 - INTRODUÇÃO À FILOSOFIA (GRADUAÇÃO) (Turma:8) MEDICINA - 1º PERÍODO: 2T1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS239 - DIREITOS E CIDADANIA (GRADUAÇÃO) (Turma:11) MEDICINA - 7º PERÍODO: 5M12345 (14/08/2023 - 08/12/2023), 5M12 (09/12/2023 - 14/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA104 - PRODUÇÃO TEXTUAL ACADÊMICA (GRADUAÇÃO) (Turma:8) MEDICINA - 1º PERÍODO: 6N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLA192 - LÍNGUA BRASILEIRA DE SINAIS (LIBRAS) (GRADUAÇÃO) (Turma:1) MEDICINA - optativa: 4N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA140 - SAÚDE COLETIVA I (GRADUAÇÃO) (Turma:1) MEDICINA - 1º PERÍODO: 2M45 4M2345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA142 - PROCESSOS BIOLÓGICOS I (GRADUAÇÃO) (Turma:1) MEDICINA - 1º PERÍODO: 3T12345 5T1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA143 - CONSTRUÇÃO HISTÓRICA DA MEDICINA (GRADUAÇÃO) (Turma:1) MEDICINA - 1º PERÍODO: 6T12 (14/08/2023 - 22/12/2023) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA167 - SAÚDE COLETIVA III (GRADUAÇÃO) (Turma:1) MEDICINA - 3º PERÍODO: 3T345 5T1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA168 - PROCESSOS BIOLÓGICOS III (GRADUAÇÃO) (Turma:1) MEDICINA - 3º PERÍODO: 2M12345 5M2345 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA169 - PROCESSOS PATOLÓGICOS I (GRADUAÇÃO) (Turma:1) MEDICINA - 3º PERÍODO: 4T1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA171 - ATENÇÃO À SAÚDE: EPIDEMIOLOGIA E BIOESTATÍSTICA (GRADUAÇÃO) (Turma:1) MEDICINA - 3º PERÍODO: 4M2345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA186 - ÉTICA E BIOÉTICA (GRADUAÇÃO) (Turma:1) MEDICINA - 7º PERÍODO: 6M45 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA188 - SAÚDE COLETIVA V (GRADUAÇÃO) (Turma:1) MEDICINA - 5º PERÍODO: 2T23 4T1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA189 - CLÍNICA I: ATENÇÃO INTEGRAL À SAÚDE DO ADULTO E DA PESSOA IDOSA (GRADUAÇÃO) (Turma:1) MEDICINA - 5º PERÍODO: 5M12345 6T1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA190 - ATENÇÃO INTEGRAL À SAÚDE MENTAL I (GRADUAÇÃO) (Turma:1) MEDICINA - 5º PERÍODO: 5T12 5N1 (14/08/2023 - 23/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA191 - CLÍNICA CIRÚRGICA I (GRADUAÇÃO) (Turma:1) MEDICINA - 5º PERÍODO: 3M2345 3T12 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA192 - ATENÇÃO INTEGRAL À SAÚDE DA MULHER I (GRADUAÇÃO) (Turma:1) MEDICINA - 5º PERÍODO: 6M2345 4N12 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA193 - ATENÇÃO INTEGRAL À SAÚDE DA CRIANÇA E DO ADOLESCENTE I (GRADUAÇÃO) (Turma:1) MEDICINA - 5º PERÍODO: 2M12345 2T1 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA213 - SAÚDE COLETIVA VII (GRADUAÇÃO) (Turma:1) MEDICINA - 7º PERÍODO: 2M2345 3N34 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA214 - CLÍNICA CIRÚRGICA III (GRADUAÇÃO) (Turma:1) MEDICINA - 7º PERÍODO: 3M2345 3T12 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA215 - CLÍNICA III: ATENÇÃO INTEGRAL À SAÚDE DO ADULTO E DA PESSOA IDOSA (GRADUAÇÃO) (Turma:1) MEDICINA - 7º PERÍODO: 46T12345 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA216 - ATENÇÃO INTEGRAL À SAÚDE DA MULHER III (GRADUAÇÃO) (Turma:1) MEDICINA - 7º PERÍODO: 5T12345 5N12 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA217 - ATENÇÃO INTEGRAL À SAÚDE DA CRIANÇA E DO ADOLESCENTE III (GRADUAÇÃO) (Turma:1) MEDICINA - 7º PERÍODO: 2T123456 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA268 - SEMINÁRIO INTEGRADOR I (GRADUAÇÃO) (Turma:1) MEDICINA - 1º PERÍODO: 6T3 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA271 - MORFOFISIOLOGIA I (GRADUAÇÃO) (Turma:1) MEDICINA - 1º PERÍODO: 2M23 36M2345 4T1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA280 - DIAGNÓSTICO E TERAPÊUTICA I (GRADUAÇÃO) (Turma:1) MEDICINA - 3º PERÍODO: 3M12345 2T123 3T12 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA281 - SEMINÁRIO INTEGRADOR III (GRADUAÇÃO) (Turma:1) MEDICINA - 3º PERÍODO: 5N12 (14/08/2023 - 03/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA283 - INFORMAÇÃO E COMUNICAÇÃO EM SAÚDE (GRADUAÇÃO) (Turma:1) MEDICINA - 5º PERÍODO: 5T3456 5N2 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA284 - SEMINÁRIO INTEGRADOR V (GRADUAÇÃO) (Turma:1) MEDICINA - 5º PERÍODO: 3T3 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA287 - SEMINÁRIO INTEGRADOR VII (GRADUAÇÃO) (Turma:1) MEDICINA - 7º PERÍODO: 4M2 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA296 - ESTÁGIO CURRICULAR OBRIGATÓRIO I (GRADUAÇÃO) (Turma:1) MEDICINA - 9º PERÍODO: 2T56 2N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA299 - ESTÁGIO CURRICULAR OBRIGATÓRIO III (GRADUAÇÃO) (Turma:1) MEDICINA - PIN: 2T56 2N1234 (14/08/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDAGOGIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1035 - HISTÓRIA GERAL DA EDUCAÇÃO (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 1º PERÍODO: 5N1234 (14/08/2023 - 30/11/2023), 7M1234 5N1234 (01/12/2023 - 14/12/2023), 5N1234 (21/12/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1036 - SEMINÁRIO DOCÊNCIA, PESQUISA E EXTENSÃO EM EDUCAÇÃO I (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 1º PERÍODO: 2N1234 (04/09/2023 - 04/09/2023), 2N1234 (16/10/2023 - 16/10/2023), 2N1234 (13/11/2023 - 20/11/2023), 2N1234 (27/11/2023 - 27/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1037 - HISTÓRIA DA EDUCAÇÃO BRASILEIRA (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 2º PERÍODO: 4M1234 (16/08/2023 - 06/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1038 - PSICOLOGIA DA EDUCAÇÃO I (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 2º PERÍODO: 3M1234 (14/08/2023 - 29/08/2023), 3M1234 (11/09/2023 - 10/10/2023), 3M1234 (23/10/2023 - 06/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1039 - SEMINÁRIO DOCÊNCIA, PESQUISA E EXTENSÃO EM EDUCAÇÃO II (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 2º PERÍODO: 3M1234 (05/09/2023 - 05/09/2023), 3M1234 (17/10/2023 - 17/10/2023), 3M1234 (14/11/2023 - 28/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1086 - TEORIAS DO CURRÍCULO (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 3º PERÍODO: 2N1234 (14/08/2023 - 20/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1087 - FILOSOFIA DA EDUCAÇÃO (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 3º PERÍODO: 3N1234 (14/08/2023 - 28/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1088 - SEMINÁRIO DOCÊNCIA, PESQUISA E EXTENSÃO EM EDUCAÇÃO III (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 3º PERÍODO: 6N1234 (08/09/2023 - 08/09/2023), 6N1234 (20/10/2023 - 20/10/2023), 6N1234 (17/11/2023 - 01/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1099 - SOCIOLOGIA DA EDUCAÇÃO (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 3º PERÍODO: 6N1234 (18/08/2023 - 01/09/2023), 6N1234 (15/09/2023 - 13/10/2023), 6N1234 (27/10/2023 - 10/11/2023), 7M1234 (11/11/2023 - 11/11/2023), 6N1234 (08/12/2023 - 15/12/2023), 6N1234 (22/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1100 - INTRODUÇÃO AO CURSO DE PEDAGOGIA (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 1º PERÍODO: 2N1234 (14/08/2023 - 28/08/2023), 2N1234 (11/09/2023 - 09/10/2023), 2N1234 (30/10/2023 - 06/11/2023), 2N123 (04/12/2023 - 04/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1102 - ARTE, EDUCAÇÃO E INFÂNCIA (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 4º PERÍODO: 2M1234 (14/08/2023 - 28/08/2023), 2M1234 (11/09/2023 - 09/10/2023), 2M1234 (23/10/2023 - 06/11/2023), 2M1234 (04/12/2023 - 18/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1103 - GESTÃO ESCOLAR (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 4º PERÍODO: 5M1234 (14/08/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1104 - DIDÁTICA I: PROCESSOS DE PLANEJAMENTO (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 4º PERÍODO: 4M1234 (14/08/2023 - 27/09/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1105 - ESTUDOS SOCIOANTROPOLÓGICOS DA INFÂNCIA (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 4º PERÍODO: 4M1234 (04/10/2023 - 13/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1106 - SEMINÁRIO DOCÊNCIA, PESQUISA E EXTENSÃO EM EDUCAÇÃO IV (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 4º PERÍODO: 2M1234 (04/09/2023 - 04/09/2023), 2M1234 (16/10/2023 - 16/10/2023), 2M1234 (13/11/2023 - 27/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1107 - PSICOLOGIA DA EDUCAÇÃO II (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 5º PERÍODO: 5N1234 (14/08/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1108 - POLÍTICAS E LEGISLAÇÃO EDUCACIONAL NA EDUCAÇÃO INFANTIL (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 5º PERÍODO: 6N1234 (14/08/2023 - 20/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1109 - POLÍTICAS E LEGISLAÇÃO EDUCACIONAL NOS ANOS INICIAIS DO ENSINO FUNDAMENTAL (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 5º PERÍODO: 6N1234 (27/10/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1110 - DIDÁTICA II: PROCESSOS DE AVALIAÇÃO (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 5º PERÍODO: 4N1234 (18/10/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1111 - SEMINÁRIO DOCÊNCIA, PESQUISA E EXTENSÃO EM EDUCAÇÃO V (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 5º PERÍODO: 3N1234 (05/09/2023 - 05/09/2023), 3N1234 (17/10/2023 - 17/10/2023), 3N1234 (14/11/2023 - 21/11/2023), 3N12 (28/11/2023 - 28/11/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1112 - CORPO E EDUCAÇÃO (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 6º PERÍODO: 3M1234 (14/08/2023 - 19/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1113 - ESTÁGIO CURRICULAR SUPERVISIONADO: EDUCAÇÃO INFANTIL I (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 6º PERÍODO: 6M12345 (18/08/2023 - 01/09/2023), 6M12345 (15/09/2023 - 13/10/2023), 6M12345 (27/10/2023 - 10/11/2023), 7M1234 7T123 (02/12/2023 - 02/12/2023), 6M12345 (08/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1114 - ORGANIZAÇÃO PEDAGÓGICA NA EDUCAÇÃO INFANTIL (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 6º PERÍODO: 5M12345 (19/10/2023 - 08/12/2023), 57M12345 (09/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1115 - BRINCADEIRA, INTERAÇÕES E LINGUAGENS NA EDUCAÇÃO INFANTIL (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 6º PERÍODO: 5M12345 (17/08/2023 - 15/09/2023), 5M12345 7M1234 (16/09/2023 - 14/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1116 - SEMINÁRIO DOCÊNCIA, PESQUISA E EXTENSÃO EM EDUCAÇÃO VI (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 6º PERÍODO: 6M1234 (08/09/2023 - 08/09/2023), 6M1234 (20/10/2023 - 20/10/2023), 6M1234 (17/11/2023 - 24/11/2023), 6M12 (01/12/2023 - 01/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1117 - ESTÁGIO CURRICULAR SUPERVISIONADO: EDUCAÇÃO INFANTIL II (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 7º PERÍODO: 7M2345 7T1234 4N1234 (16/08/2023 - 30/08/2023), 7M2345 7T1234 4N1234 (13/09/2023 - 11/10/2023), 7M2345 7T1234 4N1234 (25/10/2023 - 08/11/2023), 7M12345 7T12345 (02/12/2023 - 02/12/2023), 4T12 (06/12/2023 - 06/12/2023), 7M2345 7T1234 4N1234 (09/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1118 - DIDÁTICA DAS CIÊNCIAS DA NATUREZA I (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 7º PERÍODO: 3N1234 (14/08/2023 - 10/10/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1119 - DIDÁTICA EM GEOGRAFIA NA INFÂNCIA I (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 7º PERÍODO: 5N1234 (19/10/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1120 - SEMINÁRIO DOCÊNCIA, PESQUISA E EXTENSÃO EM EDUCAÇÃO VII (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 7º PERÍODO: 4N1234 (06/09/2023 - 06/09/2023), 4N1234 (18/10/2023 - 18/10/2023), 4N1234 (15/11/2023 - 29/11/2023), 4N12 (06/12/2023 - 06/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1121 - PESQUISA EM EDUCAÇÃO I (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 8º PERÍODO: 7M1234 (02/09/2023 - 02/09/2023), 2M1234 (04/09/2023 - 11/09/2023), 2M1234 2T1234 (16/10/2023 - 16/10/2023), 2M1234 (13/11/2023 - 27/11/2023), 7M1234 (02/12/2023 - 02/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1122 - ESTÁGIO CURRICULAR SUPERVISIONADO: ANOS INICIAIS DO ENSINO FUNDAMENTAL I (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 8º PERÍODO: 6M12345 (18/08/2023 - 01/09/2023), 6M12345 (15/09/2023 - 13/10/2023), 6M12345 (27/10/2023 - 10/11/2023), 7M1234 (11/11/2023 - 11/11/2023), 6M12345 (08/12/2023 - 11/12/2023), 6M12345 6T345 (13/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1123 - DIDÁTICA DA HISTÓRIA I (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 8º PERÍODO: 3M1234 (14/08/2023 - 19/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1124 - DIDÁTICA DAS CIÊNCIAS DA NATUREZA II (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 8º PERÍODO: 5M12345 (14/08/2023 - 21/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1125 - DIDÁTICA EM GEOGRAFIA NA INFÂNCIA II (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 8º PERÍODO: 4M1234 (14/08/2023 - 20/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1126 - SEMINÁRIO DOCÊNCIA, PESQUISA E EXTENSÃO EM EDUCAÇÃO VIII (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 8º PERÍODO: 6M1234 (08/09/2023 - 08/09/2023), 6M1234 (20/10/2023 - 20/10/2023), 6M1234 (17/11/2023 - 24/11/2023), 6M12 (01/12/2023 - 01/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1127 - PESQUISA EM EDUCAÇÃO II (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 9º PERÍODO: 6N1234 (08/09/2023 - 15/09/2023), 6N1234 (20/10/2023 - 27/10/2023), 6N1234 (10/11/2023 - 24/11/2023), 6N1234 (08/12/2023 - 15/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1128 - ESTÁGIO CURRICULAR SUPERVISIONADO: ANOS INICIAIS DO ENSINO FUNDAMENTAL II (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 9º PERÍODO: 7M2345 7T1234 3N1234 (15/08/2023 - 29/08/2023), 7M2345 7T1234 3N1234 (12/09/2023 - 10/10/2023), 7M2345 7T1234 3N1234 (24/10/2023 - 07/11/2023), 7M12345 7T123456 3N1234 (05/12/2023 - 11/12/2023), 3T123456 (12/12/2023 - 12/12/2023), 7M12345 7T123456 3N1234 (13/12/2023 - 22/12/2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCH1129 - DIDÁTICA DA HISTÓRIA II (GRADUAÇÃO) (Turma:1) PEDAGOGIA - 9º PERÍODO: 4N1234 (16/08/2023 - 11/10/2023)</t>
   </si>
 </sst>
 </file>
@@ -1497,15 +216,17 @@
   </sheetPr>
   <dimension ref="A1:AA453"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A405" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B424" activeCellId="0" sqref="A424:B424"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A424" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B434" activeCellId="0" sqref="B434"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="169.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="4" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="28" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1831,12 +552,8 @@
       <c r="AA10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1863,12 +580,8 @@
       <c r="AA11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1895,12 +608,8 @@
       <c r="AA12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1927,12 +636,8 @@
       <c r="AA13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1959,12 +664,8 @@
       <c r="AA14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1991,12 +692,8 @@
       <c r="AA15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2023,12 +720,8 @@
       <c r="AA16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2055,12 +748,8 @@
       <c r="AA17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2087,12 +776,8 @@
       <c r="AA18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2119,12 +804,8 @@
       <c r="AA19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2151,12 +832,8 @@
       <c r="AA20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2183,12 +860,8 @@
       <c r="AA21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2215,12 +888,8 @@
       <c r="AA22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -2247,12 +916,8 @@
       <c r="AA23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -2279,12 +944,8 @@
       <c r="AA24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2311,12 +972,8 @@
       <c r="AA25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -2343,12 +1000,8 @@
       <c r="AA26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2375,12 +1028,8 @@
       <c r="AA27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -2407,12 +1056,8 @@
       <c r="AA28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -2439,12 +1084,8 @@
       <c r="AA29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -2471,12 +1112,8 @@
       <c r="AA30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2503,12 +1140,8 @@
       <c r="AA31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -2535,12 +1168,8 @@
       <c r="AA32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -2567,12 +1196,8 @@
       <c r="AA33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -2599,12 +1224,8 @@
       <c r="AA34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -2631,12 +1252,8 @@
       <c r="AA35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -2663,12 +1280,8 @@
       <c r="AA36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -2695,12 +1308,8 @@
       <c r="AA37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2727,12 +1336,8 @@
       <c r="AA38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2759,12 +1364,8 @@
       <c r="AA39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2791,12 +1392,8 @@
       <c r="AA40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2823,12 +1420,8 @@
       <c r="AA41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2855,12 +1448,8 @@
       <c r="AA42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -2887,12 +1476,8 @@
       <c r="AA43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2919,12 +1504,8 @@
       <c r="AA44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -2951,12 +1532,8 @@
       <c r="AA45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2983,12 +1560,8 @@
       <c r="AA46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="4"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -3015,12 +1588,8 @@
       <c r="AA47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="4"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -3047,12 +1616,8 @@
       <c r="AA48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="4"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -3079,12 +1644,8 @@
       <c r="AA49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="4"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -3111,12 +1672,8 @@
       <c r="AA50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -3143,12 +1700,8 @@
       <c r="AA51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -3175,12 +1728,8 @@
       <c r="AA52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -3207,12 +1756,8 @@
       <c r="AA53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="4"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -3239,12 +1784,8 @@
       <c r="AA54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -3271,12 +1812,8 @@
       <c r="AA55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -3303,12 +1840,8 @@
       <c r="AA56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -3335,12 +1868,8 @@
       <c r="AA57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -3367,12 +1896,8 @@
       <c r="AA58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -3399,12 +1924,8 @@
       <c r="AA59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -3431,12 +1952,8 @@
       <c r="AA60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -3463,12 +1980,8 @@
       <c r="AA61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -3495,12 +2008,8 @@
       <c r="AA62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -3527,12 +2036,8 @@
       <c r="AA63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -3559,12 +2064,8 @@
       <c r="AA64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -3591,12 +2092,8 @@
       <c r="AA65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -3623,12 +2120,8 @@
       <c r="AA66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -3655,12 +2148,8 @@
       <c r="AA67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -3687,12 +2176,8 @@
       <c r="AA68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -3719,12 +2204,8 @@
       <c r="AA69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -3751,12 +2232,8 @@
       <c r="AA70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -3783,12 +2260,8 @@
       <c r="AA71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -3815,12 +2288,8 @@
       <c r="AA72" s="3"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -3847,12 +2316,8 @@
       <c r="AA73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -3879,12 +2344,8 @@
       <c r="AA74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -3911,12 +2372,8 @@
       <c r="AA75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -3943,12 +2400,8 @@
       <c r="AA76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -3975,12 +2428,8 @@
       <c r="AA77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -4007,12 +2456,8 @@
       <c r="AA78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -4039,12 +2484,8 @@
       <c r="AA79" s="3"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -4071,12 +2512,8 @@
       <c r="AA80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -4103,12 +2540,8 @@
       <c r="AA81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -4135,12 +2568,8 @@
       <c r="AA82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -4167,12 +2596,8 @@
       <c r="AA83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -4199,12 +2624,8 @@
       <c r="AA84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -4231,12 +2652,8 @@
       <c r="AA85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -4263,12 +2680,8 @@
       <c r="AA86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -4295,12 +2708,8 @@
       <c r="AA87" s="3"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -4327,12 +2736,8 @@
       <c r="AA88" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -4359,12 +2764,8 @@
       <c r="AA89" s="3"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -4391,12 +2792,8 @@
       <c r="AA90" s="3"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -4423,12 +2820,8 @@
       <c r="AA91" s="3"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -4455,12 +2848,8 @@
       <c r="AA92" s="3"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -4487,12 +2876,8 @@
       <c r="AA93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -4519,12 +2904,8 @@
       <c r="AA94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -4551,12 +2932,8 @@
       <c r="AA95" s="3"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -4583,12 +2960,8 @@
       <c r="AA96" s="3"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -4615,12 +2988,8 @@
       <c r="AA97" s="3"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
@@ -4647,12 +3016,8 @@
       <c r="AA98" s="3"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -4679,12 +3044,8 @@
       <c r="AA99" s="3"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -4711,12 +3072,8 @@
       <c r="AA100" s="3"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -4743,12 +3100,8 @@
       <c r="AA101" s="3"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -4775,12 +3128,8 @@
       <c r="AA102" s="3"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -4807,12 +3156,8 @@
       <c r="AA103" s="3"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -4839,12 +3184,8 @@
       <c r="AA104" s="3"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -4871,12 +3212,8 @@
       <c r="AA105" s="3"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -4903,12 +3240,8 @@
       <c r="AA106" s="3"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -4935,12 +3268,8 @@
       <c r="AA107" s="3"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -4967,12 +3296,8 @@
       <c r="AA108" s="3"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -4999,12 +3324,8 @@
       <c r="AA109" s="3"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
@@ -5031,12 +3352,8 @@
       <c r="AA110" s="3"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -5063,12 +3380,8 @@
       <c r="AA111" s="3"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -5095,12 +3408,8 @@
       <c r="AA112" s="3"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -5127,12 +3436,8 @@
       <c r="AA113" s="3"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -5159,12 +3464,8 @@
       <c r="AA114" s="3"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
@@ -5191,12 +3492,8 @@
       <c r="AA115" s="3"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
@@ -5223,12 +3520,8 @@
       <c r="AA116" s="3"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
@@ -5255,12 +3548,8 @@
       <c r="AA117" s="3"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
@@ -5287,12 +3576,8 @@
       <c r="AA118" s="3"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
@@ -5319,12 +3604,8 @@
       <c r="AA119" s="3"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
@@ -5351,12 +3632,8 @@
       <c r="AA120" s="3"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
@@ -5383,12 +3660,8 @@
       <c r="AA121" s="3"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -5415,12 +3688,8 @@
       <c r="AA122" s="3"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -5447,12 +3716,8 @@
       <c r="AA123" s="3"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
@@ -5479,12 +3744,8 @@
       <c r="AA124" s="3"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
@@ -5511,12 +3772,8 @@
       <c r="AA125" s="3"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
@@ -5543,12 +3800,8 @@
       <c r="AA126" s="3"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
@@ -5575,12 +3828,8 @@
       <c r="AA127" s="3"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
@@ -5607,12 +3856,8 @@
       <c r="AA128" s="3"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
@@ -5639,12 +3884,8 @@
       <c r="AA129" s="3"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
@@ -5671,12 +3912,8 @@
       <c r="AA130" s="3"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
@@ -5703,12 +3940,8 @@
       <c r="AA131" s="3"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
@@ -5735,12 +3968,8 @@
       <c r="AA132" s="3"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
@@ -5767,12 +3996,8 @@
       <c r="AA133" s="3"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
@@ -5799,12 +4024,8 @@
       <c r="AA134" s="3"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
@@ -5831,12 +4052,8 @@
       <c r="AA135" s="3"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
@@ -5863,12 +4080,8 @@
       <c r="AA136" s="3"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
@@ -5895,12 +4108,8 @@
       <c r="AA137" s="3"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
@@ -5927,12 +4136,8 @@
       <c r="AA138" s="3"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
@@ -5959,12 +4164,8 @@
       <c r="AA139" s="3"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
@@ -5991,12 +4192,8 @@
       <c r="AA140" s="3"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
@@ -6023,12 +4220,8 @@
       <c r="AA141" s="3"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
@@ -6055,12 +4248,8 @@
       <c r="AA142" s="3"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
@@ -6087,12 +4276,8 @@
       <c r="AA143" s="3"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>155</v>
-      </c>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
@@ -6119,12 +4304,8 @@
       <c r="AA144" s="3"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
@@ -6151,12 +4332,8 @@
       <c r="AA145" s="3"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
@@ -6183,12 +4360,8 @@
       <c r="AA146" s="3"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
@@ -6215,12 +4388,8 @@
       <c r="AA147" s="3"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
@@ -6247,12 +4416,8 @@
       <c r="AA148" s="3"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
@@ -6279,12 +4444,8 @@
       <c r="AA149" s="3"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
@@ -6311,12 +4472,8 @@
       <c r="AA150" s="3"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
@@ -6343,12 +4500,8 @@
       <c r="AA151" s="3"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
@@ -6375,12 +4528,8 @@
       <c r="AA152" s="3"/>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
@@ -6407,12 +4556,8 @@
       <c r="AA153" s="3"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
@@ -6439,12 +4584,8 @@
       <c r="AA154" s="3"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
@@ -6471,12 +4612,8 @@
       <c r="AA155" s="3"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
@@ -6503,12 +4640,8 @@
       <c r="AA156" s="3"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
@@ -6535,12 +4668,8 @@
       <c r="AA157" s="3"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
@@ -6567,12 +4696,8 @@
       <c r="AA158" s="3"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
@@ -6599,12 +4724,8 @@
       <c r="AA159" s="3"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>171</v>
-      </c>
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
@@ -6631,12 +4752,8 @@
       <c r="AA160" s="3"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -6663,12 +4780,8 @@
       <c r="AA161" s="1"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -6695,12 +4808,8 @@
       <c r="AA162" s="1"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -6727,12 +4836,8 @@
       <c r="AA163" s="1"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -6759,12 +4864,8 @@
       <c r="AA164" s="1"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -6791,12 +4892,8 @@
       <c r="AA165" s="1"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -6823,12 +4920,8 @@
       <c r="AA166" s="1"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -6855,12 +4948,8 @@
       <c r="AA167" s="1"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -6887,12 +4976,8 @@
       <c r="AA168" s="1"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -6919,12 +5004,8 @@
       <c r="AA169" s="1"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>182</v>
-      </c>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -6951,12 +5032,8 @@
       <c r="AA170" s="1"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -6983,12 +5060,8 @@
       <c r="AA171" s="1"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -7015,12 +5088,8 @@
       <c r="AA172" s="1"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>185</v>
-      </c>
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -7047,12 +5116,8 @@
       <c r="AA173" s="1"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -7079,12 +5144,8 @@
       <c r="AA174" s="1"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>187</v>
-      </c>
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -7111,12 +5172,8 @@
       <c r="AA175" s="1"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -7143,12 +5200,8 @@
       <c r="AA176" s="1"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -7175,12 +5228,8 @@
       <c r="AA177" s="1"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -7207,12 +5256,8 @@
       <c r="AA178" s="1"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -7239,12 +5284,8 @@
       <c r="AA179" s="1"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -7271,12 +5312,8 @@
       <c r="AA180" s="1"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -7303,12 +5340,8 @@
       <c r="AA181" s="1"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -7335,12 +5368,8 @@
       <c r="AA182" s="1"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -7367,12 +5396,8 @@
       <c r="AA183" s="1"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -7399,12 +5424,8 @@
       <c r="AA184" s="1"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>198</v>
-      </c>
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -7431,12 +5452,8 @@
       <c r="AA185" s="1"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -7463,12 +5480,8 @@
       <c r="AA186" s="1"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -7495,12 +5508,8 @@
       <c r="AA187" s="1"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -7527,12 +5536,8 @@
       <c r="AA188" s="1"/>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -7559,12 +5564,8 @@
       <c r="AA189" s="1"/>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -7591,12 +5592,8 @@
       <c r="AA190" s="1"/>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
@@ -7623,12 +5620,8 @@
       <c r="AA191" s="1"/>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -7655,12 +5648,8 @@
       <c r="AA192" s="1"/>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -7687,12 +5676,8 @@
       <c r="AA193" s="1"/>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
@@ -7719,12 +5704,8 @@
       <c r="AA194" s="1"/>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>208</v>
-      </c>
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
@@ -7751,12 +5732,8 @@
       <c r="AA195" s="1"/>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -7783,12 +5760,8 @@
       <c r="AA196" s="1"/>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>210</v>
-      </c>
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
@@ -7815,12 +5788,8 @@
       <c r="AA197" s="1"/>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -7847,12 +5816,8 @@
       <c r="AA198" s="1"/>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
@@ -7879,12 +5844,8 @@
       <c r="AA199" s="1"/>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
@@ -7911,12 +5872,8 @@
       <c r="AA200" s="1"/>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>214</v>
-      </c>
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -7943,12 +5900,8 @@
       <c r="AA201" s="1"/>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -7975,12 +5928,8 @@
       <c r="AA202" s="1"/>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
@@ -8007,12 +5956,8 @@
       <c r="AA203" s="1"/>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -8039,12 +5984,8 @@
       <c r="AA204" s="1"/>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>219</v>
-      </c>
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
@@ -8071,12 +6012,8 @@
       <c r="AA205" s="1"/>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>220</v>
-      </c>
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
@@ -8103,12 +6040,8 @@
       <c r="AA206" s="1"/>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>221</v>
-      </c>
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
@@ -8135,12 +6068,8 @@
       <c r="AA207" s="1"/>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>222</v>
-      </c>
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
@@ -8167,12 +6096,8 @@
       <c r="AA208" s="1"/>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>223</v>
-      </c>
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -8199,12 +6124,8 @@
       <c r="AA209" s="1"/>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
@@ -8231,12 +6152,8 @@
       <c r="AA210" s="1"/>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
@@ -8263,12 +6180,8 @@
       <c r="AA211" s="1"/>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
@@ -8295,12 +6208,8 @@
       <c r="AA212" s="1"/>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
@@ -8327,12 +6236,8 @@
       <c r="AA213" s="1"/>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
@@ -8359,12 +6264,8 @@
       <c r="AA214" s="1"/>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
@@ -8391,12 +6292,8 @@
       <c r="AA215" s="1"/>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -8423,12 +6320,8 @@
       <c r="AA216" s="1"/>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>231</v>
-      </c>
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
@@ -8455,12 +6348,8 @@
       <c r="AA217" s="1"/>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
@@ -8487,12 +6376,8 @@
       <c r="AA218" s="1"/>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
@@ -8519,12 +6404,8 @@
       <c r="AA219" s="1"/>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
@@ -8551,12 +6432,8 @@
       <c r="AA220" s="1"/>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
@@ -8583,12 +6460,8 @@
       <c r="AA221" s="1"/>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
@@ -8615,12 +6488,8 @@
       <c r="AA222" s="1"/>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
@@ -8647,12 +6516,8 @@
       <c r="AA223" s="1"/>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>238</v>
-      </c>
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
@@ -8679,12 +6544,8 @@
       <c r="AA224" s="1"/>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
@@ -8711,12 +6572,8 @@
       <c r="AA225" s="1"/>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>240</v>
-      </c>
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
@@ -8743,12 +6600,8 @@
       <c r="AA226" s="1"/>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
@@ -8775,12 +6628,8 @@
       <c r="AA227" s="1"/>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
@@ -8807,12 +6656,8 @@
       <c r="AA228" s="1"/>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>243</v>
-      </c>
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
@@ -8839,12 +6684,8 @@
       <c r="AA229" s="1"/>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
@@ -8871,12 +6712,8 @@
       <c r="AA230" s="1"/>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
@@ -8903,12 +6740,8 @@
       <c r="AA231" s="1"/>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>246</v>
-      </c>
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
@@ -8935,12 +6768,8 @@
       <c r="AA232" s="1"/>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
@@ -8967,12 +6796,8 @@
       <c r="AA233" s="1"/>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
@@ -8999,12 +6824,8 @@
       <c r="AA234" s="1"/>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
@@ -9031,12 +6852,8 @@
       <c r="AA235" s="1"/>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
@@ -9063,12 +6880,8 @@
       <c r="AA236" s="1"/>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>251</v>
-      </c>
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
@@ -9095,12 +6908,8 @@
       <c r="AA237" s="1"/>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>252</v>
-      </c>
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
@@ -9127,12 +6936,8 @@
       <c r="AA238" s="1"/>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>253</v>
-      </c>
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
@@ -9159,12 +6964,8 @@
       <c r="AA239" s="1"/>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>254</v>
-      </c>
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
@@ -9191,12 +6992,8 @@
       <c r="AA240" s="1"/>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
@@ -9223,12 +7020,8 @@
       <c r="AA241" s="1"/>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>256</v>
-      </c>
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
@@ -9255,12 +7048,8 @@
       <c r="AA242" s="1"/>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>257</v>
-      </c>
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
@@ -9287,12 +7076,8 @@
       <c r="AA243" s="1"/>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>259</v>
-      </c>
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
@@ -9319,12 +7104,8 @@
       <c r="AA244" s="1"/>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>260</v>
-      </c>
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
@@ -9351,12 +7132,8 @@
       <c r="AA245" s="1"/>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
@@ -9383,12 +7160,8 @@
       <c r="AA246" s="1"/>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>262</v>
-      </c>
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
@@ -9415,12 +7188,8 @@
       <c r="AA247" s="1"/>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>263</v>
-      </c>
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
@@ -9447,12 +7216,8 @@
       <c r="AA248" s="1"/>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>264</v>
-      </c>
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
@@ -9479,12 +7244,8 @@
       <c r="AA249" s="1"/>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>265</v>
-      </c>
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
@@ -9511,12 +7272,8 @@
       <c r="AA250" s="1"/>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>266</v>
-      </c>
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
@@ -9543,12 +7300,8 @@
       <c r="AA251" s="1"/>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
@@ -9575,12 +7328,8 @@
       <c r="AA252" s="1"/>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>268</v>
-      </c>
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
@@ -9607,12 +7356,8 @@
       <c r="AA253" s="1"/>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
@@ -9639,12 +7384,8 @@
       <c r="AA254" s="1"/>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -9671,12 +7412,8 @@
       <c r="AA255" s="1"/>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>271</v>
-      </c>
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
@@ -9703,12 +7440,8 @@
       <c r="AA256" s="1"/>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
@@ -9735,12 +7468,8 @@
       <c r="AA257" s="1"/>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
@@ -9767,12 +7496,8 @@
       <c r="AA258" s="1"/>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>274</v>
-      </c>
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
@@ -9799,12 +7524,8 @@
       <c r="AA259" s="1"/>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
@@ -9831,12 +7552,8 @@
       <c r="AA260" s="1"/>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>277</v>
-      </c>
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
@@ -9863,12 +7580,8 @@
       <c r="AA261" s="1"/>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>278</v>
-      </c>
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
@@ -9895,12 +7608,8 @@
       <c r="AA262" s="1"/>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>279</v>
-      </c>
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
@@ -9927,12 +7636,8 @@
       <c r="AA263" s="1"/>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>280</v>
-      </c>
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
@@ -9959,12 +7664,8 @@
       <c r="AA264" s="1"/>
     </row>
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>281</v>
-      </c>
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
@@ -9991,12 +7692,8 @@
       <c r="AA265" s="1"/>
     </row>
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>282</v>
-      </c>
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
@@ -10023,12 +7720,8 @@
       <c r="AA266" s="1"/>
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
@@ -10055,12 +7748,8 @@
       <c r="AA267" s="1"/>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>284</v>
-      </c>
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
@@ -10087,12 +7776,8 @@
       <c r="AA268" s="1"/>
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
@@ -10119,12 +7804,8 @@
       <c r="AA269" s="1"/>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>286</v>
-      </c>
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
@@ -10151,12 +7832,8 @@
       <c r="AA270" s="1"/>
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
@@ -10183,12 +7860,8 @@
       <c r="AA271" s="1"/>
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>288</v>
-      </c>
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
@@ -10215,12 +7888,8 @@
       <c r="AA272" s="1"/>
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A273" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
@@ -10247,12 +7916,8 @@
       <c r="AA273" s="1"/>
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>290</v>
-      </c>
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
@@ -10279,12 +7944,8 @@
       <c r="AA274" s="1"/>
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
@@ -10311,12 +7972,8 @@
       <c r="AA275" s="1"/>
     </row>
     <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
@@ -10343,12 +8000,8 @@
       <c r="AA276" s="1"/>
     </row>
     <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
@@ -10375,12 +8028,8 @@
       <c r="AA277" s="1"/>
     </row>
     <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>294</v>
-      </c>
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
@@ -10407,12 +8056,8 @@
       <c r="AA278" s="1"/>
     </row>
     <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>296</v>
-      </c>
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
@@ -10439,12 +8084,8 @@
       <c r="AA279" s="1"/>
     </row>
     <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>297</v>
-      </c>
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
@@ -10471,12 +8112,8 @@
       <c r="AA280" s="1"/>
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>298</v>
-      </c>
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
@@ -10503,12 +8140,8 @@
       <c r="AA281" s="1"/>
     </row>
     <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>299</v>
-      </c>
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
@@ -10535,12 +8168,8 @@
       <c r="AA282" s="1"/>
     </row>
     <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>300</v>
-      </c>
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
@@ -10567,12 +8196,8 @@
       <c r="AA283" s="1"/>
     </row>
     <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>301</v>
-      </c>
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
@@ -10599,12 +8224,8 @@
       <c r="AA284" s="1"/>
     </row>
     <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>302</v>
-      </c>
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
@@ -10631,12 +8252,8 @@
       <c r="AA285" s="1"/>
     </row>
     <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A286" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>303</v>
-      </c>
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
@@ -10663,12 +8280,8 @@
       <c r="AA286" s="1"/>
     </row>
     <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A287" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>304</v>
-      </c>
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
@@ -10695,12 +8308,8 @@
       <c r="AA287" s="1"/>
     </row>
     <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A288" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>305</v>
-      </c>
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
@@ -10727,12 +8336,8 @@
       <c r="AA288" s="1"/>
     </row>
     <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A289" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>306</v>
-      </c>
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
@@ -10759,12 +8364,8 @@
       <c r="AA289" s="1"/>
     </row>
     <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>307</v>
-      </c>
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
@@ -10791,12 +8392,8 @@
       <c r="AA290" s="1"/>
     </row>
     <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A291" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>308</v>
-      </c>
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
@@ -10823,12 +8420,8 @@
       <c r="AA291" s="1"/>
     </row>
     <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A292" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>309</v>
-      </c>
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
@@ -10855,12 +8448,8 @@
       <c r="AA292" s="1"/>
     </row>
     <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A293" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
@@ -10887,12 +8476,8 @@
       <c r="AA293" s="1"/>
     </row>
     <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A294" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>311</v>
-      </c>
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
@@ -10919,12 +8504,8 @@
       <c r="AA294" s="1"/>
     </row>
     <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A295" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>312</v>
-      </c>
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
@@ -10951,12 +8532,8 @@
       <c r="AA295" s="1"/>
     </row>
     <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A296" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>314</v>
-      </c>
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
@@ -10983,12 +8560,8 @@
       <c r="AA296" s="1"/>
     </row>
     <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A297" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>315</v>
-      </c>
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
@@ -11015,12 +8588,8 @@
       <c r="AA297" s="1"/>
     </row>
     <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A298" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>316</v>
-      </c>
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
@@ -11047,12 +8616,8 @@
       <c r="AA298" s="1"/>
     </row>
     <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A299" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>317</v>
-      </c>
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
@@ -11079,12 +8644,8 @@
       <c r="AA299" s="1"/>
     </row>
     <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A300" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>318</v>
-      </c>
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
@@ -11111,12 +8672,8 @@
       <c r="AA300" s="1"/>
     </row>
     <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A301" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>319</v>
-      </c>
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
@@ -11143,12 +8700,8 @@
       <c r="AA301" s="1"/>
     </row>
     <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A302" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
@@ -11175,12 +8728,8 @@
       <c r="AA302" s="1"/>
     </row>
     <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A303" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>321</v>
-      </c>
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
@@ -11207,12 +8756,8 @@
       <c r="AA303" s="1"/>
     </row>
     <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A304" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>322</v>
-      </c>
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
@@ -11239,12 +8784,8 @@
       <c r="AA304" s="1"/>
     </row>
     <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A305" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>323</v>
-      </c>
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
@@ -11271,12 +8812,8 @@
       <c r="AA305" s="1"/>
     </row>
     <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A306" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>324</v>
-      </c>
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
@@ -11303,12 +8840,8 @@
       <c r="AA306" s="1"/>
     </row>
     <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A307" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
@@ -11335,12 +8868,8 @@
       <c r="AA307" s="1"/>
     </row>
     <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A308" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>326</v>
-      </c>
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
@@ -11367,12 +8896,8 @@
       <c r="AA308" s="1"/>
     </row>
     <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A309" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>327</v>
-      </c>
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
@@ -11399,12 +8924,8 @@
       <c r="AA309" s="1"/>
     </row>
     <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A310" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
@@ -11431,12 +8952,8 @@
       <c r="AA310" s="1"/>
     </row>
     <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A311" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>329</v>
-      </c>
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
@@ -11463,12 +8980,8 @@
       <c r="AA311" s="1"/>
     </row>
     <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A312" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>330</v>
-      </c>
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
@@ -11495,12 +9008,8 @@
       <c r="AA312" s="1"/>
     </row>
     <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A313" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>331</v>
-      </c>
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
@@ -11527,12 +9036,8 @@
       <c r="AA313" s="1"/>
     </row>
     <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A314" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>332</v>
-      </c>
+      <c r="A314" s="1"/>
+      <c r="B314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
@@ -11559,12 +9064,8 @@
       <c r="AA314" s="1"/>
     </row>
     <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A315" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>333</v>
-      </c>
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
@@ -11591,12 +9092,8 @@
       <c r="AA315" s="1"/>
     </row>
     <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A316" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>334</v>
-      </c>
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
@@ -11623,12 +9120,8 @@
       <c r="AA316" s="1"/>
     </row>
     <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A317" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>335</v>
-      </c>
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
@@ -11655,12 +9148,8 @@
       <c r="AA317" s="1"/>
     </row>
     <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A318" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>336</v>
-      </c>
+      <c r="A318" s="1"/>
+      <c r="B318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
@@ -11687,12 +9176,8 @@
       <c r="AA318" s="1"/>
     </row>
     <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A319" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>337</v>
-      </c>
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
@@ -11719,12 +9204,8 @@
       <c r="AA319" s="1"/>
     </row>
     <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A320" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>338</v>
-      </c>
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
@@ -11751,12 +9232,8 @@
       <c r="AA320" s="1"/>
     </row>
     <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A321" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>339</v>
-      </c>
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
@@ -11783,12 +9260,8 @@
       <c r="AA321" s="1"/>
     </row>
     <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A322" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
@@ -11815,12 +9288,8 @@
       <c r="AA322" s="1"/>
     </row>
     <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A323" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>341</v>
-      </c>
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
@@ -11847,12 +9316,8 @@
       <c r="AA323" s="1"/>
     </row>
     <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A324" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>342</v>
-      </c>
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
@@ -11879,12 +9344,8 @@
       <c r="AA324" s="1"/>
     </row>
     <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A325" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>343</v>
-      </c>
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
@@ -11911,12 +9372,8 @@
       <c r="AA325" s="1"/>
     </row>
     <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A326" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>344</v>
-      </c>
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
@@ -11943,12 +9400,8 @@
       <c r="AA326" s="1"/>
     </row>
     <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A327" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>345</v>
-      </c>
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
@@ -11975,12 +9428,8 @@
       <c r="AA327" s="1"/>
     </row>
     <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A328" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>346</v>
-      </c>
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
@@ -12007,12 +9456,8 @@
       <c r="AA328" s="1"/>
     </row>
     <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A329" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>348</v>
-      </c>
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
@@ -12039,12 +9484,8 @@
       <c r="AA329" s="1"/>
     </row>
     <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A330" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
@@ -12071,12 +9512,8 @@
       <c r="AA330" s="1"/>
     </row>
     <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A331" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>350</v>
-      </c>
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
@@ -12103,12 +9540,8 @@
       <c r="AA331" s="1"/>
     </row>
     <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A332" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
@@ -12135,12 +9568,8 @@
       <c r="AA332" s="1"/>
     </row>
     <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A333" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>352</v>
-      </c>
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
@@ -12167,12 +9596,8 @@
       <c r="AA333" s="1"/>
     </row>
     <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A334" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>353</v>
-      </c>
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
@@ -12199,12 +9624,8 @@
       <c r="AA334" s="1"/>
     </row>
     <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A335" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>355</v>
-      </c>
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
@@ -12231,12 +9652,8 @@
       <c r="AA335" s="1"/>
     </row>
     <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A336" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
@@ -12263,12 +9680,8 @@
       <c r="AA336" s="1"/>
     </row>
     <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A337" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
@@ -12295,12 +9708,8 @@
       <c r="AA337" s="1"/>
     </row>
     <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A338" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>359</v>
-      </c>
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
@@ -12327,12 +9736,8 @@
       <c r="AA338" s="1"/>
     </row>
     <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A339" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>360</v>
-      </c>
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
@@ -12359,12 +9764,8 @@
       <c r="AA339" s="1"/>
     </row>
     <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A340" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>361</v>
-      </c>
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
@@ -12391,12 +9792,8 @@
       <c r="AA340" s="1"/>
     </row>
     <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A341" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
@@ -12423,12 +9820,8 @@
       <c r="AA341" s="1"/>
     </row>
     <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A342" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>363</v>
-      </c>
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
@@ -12455,12 +9848,8 @@
       <c r="AA342" s="1"/>
     </row>
     <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A343" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>364</v>
-      </c>
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
@@ -12487,12 +9876,8 @@
       <c r="AA343" s="1"/>
     </row>
     <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A344" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>365</v>
-      </c>
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
@@ -12519,12 +9904,8 @@
       <c r="AA344" s="1"/>
     </row>
     <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A345" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>366</v>
-      </c>
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
@@ -12551,12 +9932,8 @@
       <c r="AA345" s="1"/>
     </row>
     <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A346" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>367</v>
-      </c>
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
@@ -12583,12 +9960,8 @@
       <c r="AA346" s="1"/>
     </row>
     <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A347" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
@@ -12615,12 +9988,8 @@
       <c r="AA347" s="1"/>
     </row>
     <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A348" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>369</v>
-      </c>
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
@@ -12647,12 +10016,8 @@
       <c r="AA348" s="1"/>
     </row>
     <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A349" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>370</v>
-      </c>
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
@@ -12679,12 +10044,8 @@
       <c r="AA349" s="1"/>
     </row>
     <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A350" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>371</v>
-      </c>
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
@@ -12711,12 +10072,8 @@
       <c r="AA350" s="1"/>
     </row>
     <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A351" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>372</v>
-      </c>
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
@@ -12743,12 +10100,8 @@
       <c r="AA351" s="1"/>
     </row>
     <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>373</v>
-      </c>
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
@@ -12775,12 +10128,8 @@
       <c r="AA352" s="1"/>
     </row>
     <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A353" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>375</v>
-      </c>
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
@@ -12807,12 +10156,8 @@
       <c r="AA353" s="1"/>
     </row>
     <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A354" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>376</v>
-      </c>
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
@@ -12839,12 +10184,8 @@
       <c r="AA354" s="1"/>
     </row>
     <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A355" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>377</v>
-      </c>
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
@@ -12871,12 +10212,8 @@
       <c r="AA355" s="1"/>
     </row>
     <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A356" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>378</v>
-      </c>
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
@@ -12903,12 +10240,8 @@
       <c r="AA356" s="1"/>
     </row>
     <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A357" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>379</v>
-      </c>
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
@@ -12935,12 +10268,8 @@
       <c r="AA357" s="1"/>
     </row>
     <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A358" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>380</v>
-      </c>
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
@@ -12967,12 +10296,8 @@
       <c r="AA358" s="1"/>
     </row>
     <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A359" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
@@ -12999,12 +10324,8 @@
       <c r="AA359" s="1"/>
     </row>
     <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A360" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
@@ -13031,12 +10352,8 @@
       <c r="AA360" s="1"/>
     </row>
     <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A361" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>383</v>
-      </c>
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
@@ -13063,12 +10380,8 @@
       <c r="AA361" s="1"/>
     </row>
     <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A362" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>384</v>
-      </c>
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
@@ -13095,12 +10408,8 @@
       <c r="AA362" s="1"/>
     </row>
     <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A363" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>385</v>
-      </c>
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
@@ -13127,12 +10436,8 @@
       <c r="AA363" s="1"/>
     </row>
     <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A364" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>386</v>
-      </c>
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
@@ -13159,12 +10464,8 @@
       <c r="AA364" s="1"/>
     </row>
     <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A365" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>387</v>
-      </c>
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
@@ -13191,12 +10492,8 @@
       <c r="AA365" s="1"/>
     </row>
     <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A366" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>388</v>
-      </c>
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
@@ -13223,12 +10520,8 @@
       <c r="AA366" s="1"/>
     </row>
     <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A367" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>389</v>
-      </c>
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
@@ -13255,12 +10548,8 @@
       <c r="AA367" s="1"/>
     </row>
     <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A368" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>390</v>
-      </c>
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
@@ -13287,12 +10576,8 @@
       <c r="AA368" s="1"/>
     </row>
     <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A369" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>391</v>
-      </c>
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
@@ -13319,12 +10604,8 @@
       <c r="AA369" s="1"/>
     </row>
     <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A370" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>392</v>
-      </c>
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
@@ -13351,12 +10632,8 @@
       <c r="AA370" s="1"/>
     </row>
     <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A371" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>393</v>
-      </c>
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
@@ -13383,12 +10660,8 @@
       <c r="AA371" s="1"/>
     </row>
     <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A372" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>394</v>
-      </c>
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
@@ -13415,12 +10688,8 @@
       <c r="AA372" s="1"/>
     </row>
     <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A373" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>395</v>
-      </c>
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
@@ -13447,12 +10716,8 @@
       <c r="AA373" s="1"/>
     </row>
     <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A374" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>396</v>
-      </c>
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
@@ -13479,12 +10744,8 @@
       <c r="AA374" s="1"/>
     </row>
     <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A375" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
@@ -13511,12 +10772,8 @@
       <c r="AA375" s="1"/>
     </row>
     <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A376" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
@@ -13543,12 +10800,8 @@
       <c r="AA376" s="1"/>
     </row>
     <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A377" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>399</v>
-      </c>
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
@@ -13575,12 +10828,8 @@
       <c r="AA377" s="1"/>
     </row>
     <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A378" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
@@ -13607,12 +10856,8 @@
       <c r="AA378" s="1"/>
     </row>
     <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A379" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>401</v>
-      </c>
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
@@ -13639,12 +10884,8 @@
       <c r="AA379" s="1"/>
     </row>
     <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A380" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>402</v>
-      </c>
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
@@ -13671,12 +10912,8 @@
       <c r="AA380" s="1"/>
     </row>
     <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A381" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>403</v>
-      </c>
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
@@ -13703,12 +10940,8 @@
       <c r="AA381" s="1"/>
     </row>
     <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A382" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>404</v>
-      </c>
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
@@ -13735,12 +10968,8 @@
       <c r="AA382" s="1"/>
     </row>
     <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A383" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>405</v>
-      </c>
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
@@ -13767,12 +10996,8 @@
       <c r="AA383" s="1"/>
     </row>
     <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A384" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>406</v>
-      </c>
+      <c r="A384" s="1"/>
+      <c r="B384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
@@ -13799,12 +11024,8 @@
       <c r="AA384" s="1"/>
     </row>
     <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A385" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>407</v>
-      </c>
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
@@ -13831,12 +11052,8 @@
       <c r="AA385" s="1"/>
     </row>
     <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A386" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>409</v>
-      </c>
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
@@ -13863,12 +11080,8 @@
       <c r="AA386" s="1"/>
     </row>
     <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A387" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>410</v>
-      </c>
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
@@ -13895,12 +11108,8 @@
       <c r="AA387" s="1"/>
     </row>
     <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A388" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>411</v>
-      </c>
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
@@ -13927,12 +11136,8 @@
       <c r="AA388" s="1"/>
     </row>
     <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A389" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>412</v>
-      </c>
+      <c r="A389" s="1"/>
+      <c r="B389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
@@ -13959,12 +11164,8 @@
       <c r="AA389" s="1"/>
     </row>
     <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A390" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>413</v>
-      </c>
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
@@ -13991,12 +11192,8 @@
       <c r="AA390" s="1"/>
     </row>
     <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A391" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>414</v>
-      </c>
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
@@ -14023,12 +11220,8 @@
       <c r="AA391" s="1"/>
     </row>
     <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A392" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>415</v>
-      </c>
+      <c r="A392" s="1"/>
+      <c r="B392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
@@ -14055,12 +11248,8 @@
       <c r="AA392" s="1"/>
     </row>
     <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A393" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>416</v>
-      </c>
+      <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
@@ -14087,12 +11276,8 @@
       <c r="AA393" s="1"/>
     </row>
     <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A394" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>417</v>
-      </c>
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
@@ -14119,12 +11304,8 @@
       <c r="AA394" s="1"/>
     </row>
     <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A395" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>418</v>
-      </c>
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
@@ -14151,12 +11332,8 @@
       <c r="AA395" s="1"/>
     </row>
     <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A396" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>419</v>
-      </c>
+      <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
@@ -14183,12 +11360,8 @@
       <c r="AA396" s="1"/>
     </row>
     <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A397" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>420</v>
-      </c>
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
@@ -14215,12 +11388,8 @@
       <c r="AA397" s="1"/>
     </row>
     <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A398" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>421</v>
-      </c>
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
@@ -14247,12 +11416,8 @@
       <c r="AA398" s="1"/>
     </row>
     <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A399" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>422</v>
-      </c>
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
@@ -14279,12 +11444,8 @@
       <c r="AA399" s="1"/>
     </row>
     <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A400" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>423</v>
-      </c>
+      <c r="A400" s="1"/>
+      <c r="B400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
@@ -14311,12 +11472,8 @@
       <c r="AA400" s="1"/>
     </row>
     <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A401" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>424</v>
-      </c>
+      <c r="A401" s="1"/>
+      <c r="B401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
@@ -14343,12 +11500,8 @@
       <c r="AA401" s="1"/>
     </row>
     <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A402" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="A402" s="1"/>
+      <c r="B402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
@@ -14375,12 +11528,8 @@
       <c r="AA402" s="1"/>
     </row>
     <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A403" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>426</v>
-      </c>
+      <c r="A403" s="1"/>
+      <c r="B403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
@@ -14407,12 +11556,8 @@
       <c r="AA403" s="1"/>
     </row>
     <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A404" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>427</v>
-      </c>
+      <c r="A404" s="1"/>
+      <c r="B404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
@@ -14439,12 +11584,8 @@
       <c r="AA404" s="1"/>
     </row>
     <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A405" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>428</v>
-      </c>
+      <c r="A405" s="1"/>
+      <c r="B405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
@@ -14471,12 +11612,8 @@
       <c r="AA405" s="1"/>
     </row>
     <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A406" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>429</v>
-      </c>
+      <c r="A406" s="1"/>
+      <c r="B406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
@@ -14503,12 +11640,8 @@
       <c r="AA406" s="1"/>
     </row>
     <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A407" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="A407" s="1"/>
+      <c r="B407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
@@ -14535,12 +11668,8 @@
       <c r="AA407" s="1"/>
     </row>
     <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A408" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>431</v>
-      </c>
+      <c r="A408" s="1"/>
+      <c r="B408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
@@ -14567,12 +11696,8 @@
       <c r="AA408" s="1"/>
     </row>
     <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A409" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>432</v>
-      </c>
+      <c r="A409" s="1"/>
+      <c r="B409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
@@ -14599,12 +11724,8 @@
       <c r="AA409" s="1"/>
     </row>
     <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A410" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>433</v>
-      </c>
+      <c r="A410" s="1"/>
+      <c r="B410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
@@ -14631,12 +11752,8 @@
       <c r="AA410" s="1"/>
     </row>
     <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A411" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>434</v>
-      </c>
+      <c r="A411" s="1"/>
+      <c r="B411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
@@ -14663,12 +11780,8 @@
       <c r="AA411" s="1"/>
     </row>
     <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A412" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>435</v>
-      </c>
+      <c r="A412" s="1"/>
+      <c r="B412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
@@ -14695,12 +11808,8 @@
       <c r="AA412" s="1"/>
     </row>
     <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A413" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>436</v>
-      </c>
+      <c r="A413" s="1"/>
+      <c r="B413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
@@ -14727,12 +11836,8 @@
       <c r="AA413" s="1"/>
     </row>
     <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A414" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>437</v>
-      </c>
+      <c r="A414" s="1"/>
+      <c r="B414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
@@ -14759,12 +11864,8 @@
       <c r="AA414" s="1"/>
     </row>
     <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A415" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>438</v>
-      </c>
+      <c r="A415" s="1"/>
+      <c r="B415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
@@ -14791,12 +11892,8 @@
       <c r="AA415" s="1"/>
     </row>
     <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A416" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>439</v>
-      </c>
+      <c r="A416" s="1"/>
+      <c r="B416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
@@ -14823,12 +11920,8 @@
       <c r="AA416" s="1"/>
     </row>
     <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A417" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>440</v>
-      </c>
+      <c r="A417" s="1"/>
+      <c r="B417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
@@ -14855,12 +11948,8 @@
       <c r="AA417" s="1"/>
     </row>
     <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A418" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>441</v>
-      </c>
+      <c r="A418" s="1"/>
+      <c r="B418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
@@ -14887,12 +11976,8 @@
       <c r="AA418" s="1"/>
     </row>
     <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A419" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>442</v>
-      </c>
+      <c r="A419" s="1"/>
+      <c r="B419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
@@ -14919,12 +12004,8 @@
       <c r="AA419" s="1"/>
     </row>
     <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A420" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>443</v>
-      </c>
+      <c r="A420" s="1"/>
+      <c r="B420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
@@ -14951,12 +12032,8 @@
       <c r="AA420" s="1"/>
     </row>
     <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A421" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>444</v>
-      </c>
+      <c r="A421" s="1"/>
+      <c r="B421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
@@ -14983,12 +12060,8 @@
       <c r="AA421" s="1"/>
     </row>
     <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A422" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>445</v>
-      </c>
+      <c r="A422" s="1"/>
+      <c r="B422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
@@ -15015,12 +12088,8 @@
       <c r="AA422" s="1"/>
     </row>
     <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A423" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>446</v>
-      </c>
+      <c r="A423" s="1"/>
+      <c r="B423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
@@ -15047,6 +12116,8 @@
       <c r="AA423" s="1"/>
     </row>
     <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A424" s="1"/>
+      <c r="B424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
@@ -15073,6 +12144,8 @@
       <c r="AA424" s="1"/>
     </row>
     <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A425" s="1"/>
+      <c r="B425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
@@ -15099,6 +12172,8 @@
       <c r="AA425" s="1"/>
     </row>
     <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A426" s="1"/>
+      <c r="B426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
@@ -15125,6 +12200,8 @@
       <c r="AA426" s="1"/>
     </row>
     <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A427" s="1"/>
+      <c r="B427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
@@ -15151,6 +12228,8 @@
       <c r="AA427" s="1"/>
     </row>
     <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A428" s="1"/>
+      <c r="B428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
@@ -15177,6 +12256,8 @@
       <c r="AA428" s="1"/>
     </row>
     <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A429" s="1"/>
+      <c r="B429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
@@ -15203,6 +12284,8 @@
       <c r="AA429" s="1"/>
     </row>
     <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A430" s="1"/>
+      <c r="B430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
@@ -15229,6 +12312,8 @@
       <c r="AA430" s="1"/>
     </row>
     <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A431" s="1"/>
+      <c r="B431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
@@ -15255,6 +12340,8 @@
       <c r="AA431" s="1"/>
     </row>
     <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A432" s="1"/>
+      <c r="B432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
@@ -15281,6 +12368,8 @@
       <c r="AA432" s="1"/>
     </row>
     <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A433" s="1"/>
+      <c r="B433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
@@ -15307,6 +12396,8 @@
       <c r="AA433" s="1"/>
     </row>
     <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A434" s="1"/>
+      <c r="B434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
@@ -15333,6 +12424,8 @@
       <c r="AA434" s="1"/>
     </row>
     <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A435" s="1"/>
+      <c r="B435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
@@ -15359,6 +12452,8 @@
       <c r="AA435" s="1"/>
     </row>
     <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A436" s="1"/>
+      <c r="B436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
@@ -15385,6 +12480,8 @@
       <c r="AA436" s="1"/>
     </row>
     <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A437" s="1"/>
+      <c r="B437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
@@ -15411,6 +12508,8 @@
       <c r="AA437" s="1"/>
     </row>
     <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A438" s="1"/>
+      <c r="B438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
@@ -15437,6 +12536,8 @@
       <c r="AA438" s="1"/>
     </row>
     <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A439" s="1"/>
+      <c r="B439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
@@ -15463,6 +12564,8 @@
       <c r="AA439" s="1"/>
     </row>
     <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A440" s="1"/>
+      <c r="B440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
@@ -15489,6 +12592,8 @@
       <c r="AA440" s="1"/>
     </row>
     <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A441" s="1"/>
+      <c r="B441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
@@ -15515,6 +12620,8 @@
       <c r="AA441" s="1"/>
     </row>
     <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A442" s="1"/>
+      <c r="B442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
@@ -15541,6 +12648,8 @@
       <c r="AA442" s="1"/>
     </row>
     <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A443" s="1"/>
+      <c r="B443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
@@ -15567,6 +12676,8 @@
       <c r="AA443" s="1"/>
     </row>
     <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A444" s="1"/>
+      <c r="B444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
@@ -15593,6 +12704,8 @@
       <c r="AA444" s="1"/>
     </row>
     <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A445" s="1"/>
+      <c r="B445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
@@ -15619,6 +12732,8 @@
       <c r="AA445" s="1"/>
     </row>
     <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A446" s="1"/>
+      <c r="B446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
@@ -15645,6 +12760,8 @@
       <c r="AA446" s="1"/>
     </row>
     <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A447" s="1"/>
+      <c r="B447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
@@ -15671,6 +12788,8 @@
       <c r="AA447" s="1"/>
     </row>
     <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A448" s="1"/>
+      <c r="B448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
@@ -15697,6 +12816,8 @@
       <c r="AA448" s="1"/>
     </row>
     <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A449" s="1"/>
+      <c r="B449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
@@ -15723,6 +12844,8 @@
       <c r="AA449" s="1"/>
     </row>
     <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A450" s="1"/>
+      <c r="B450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
@@ -15749,6 +12872,8 @@
       <c r="AA450" s="1"/>
     </row>
     <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A451" s="1"/>
+      <c r="B451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
@@ -15775,6 +12900,8 @@
       <c r="AA451" s="1"/>
     </row>
     <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A452" s="1"/>
+      <c r="B452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
@@ -15801,6 +12928,8 @@
       <c r="AA452" s="1"/>
     </row>
     <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A453" s="1"/>
+      <c r="B453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>

--- a/dados/horarios_teste.xlsx
+++ b/dados/horarios_teste.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">-FUSÃO: MATEMÁTICA + PEDAGOGIA</t>
   </si>
   <si>
-    <t xml:space="preserve">GCH837 - ESTÁGIO CURRICULAR SUPERVISIONADO I (GRADUAÇÃO) (Turma:2) MATEMÁTICA - 6º PERÍODO + PEDAGOGIA - 5º PERÍODO: 3N1234 (15/08/2023 - 29/08/2023), 7M12345 3N1234 (12/09/2023 - 14/10/2023), 7M12345 3N1234 (24/10/2023 - 11/11/2023), 7M12345 3T56 5T123456 3N1234 (05/12/2023 - 05/12/2023), 7M12345 3N1234 (06/12/2023 - 22/12/2023)</t>
+    <t xml:space="preserve">GCH837 - ESTÁGIO CURRICULAR SUPERVISIONADO I (GRADUAÇÃO) (Turma:2) MATEMÁTICA - 6º PERÍODO + PEDAGOGIA - 5º PERÍODO: 7M12345 3N1234 (12/09/2023 - 14/10/2023), 7M12345 3N1234 (24/10/2023 - 11/11/2023), 7M12345 3T56 5T123456 3N1234 (05/12/2023 - 05/12/2023), 7M12345 3N1234 (06/12/2023 - 22/12/2023)</t>
   </si>
   <si>
     <t xml:space="preserve">AULAS VESPERTINAS EM SALA DISTINTA</t>
@@ -216,11 +216,11 @@
   </sheetPr>
   <dimension ref="A1:AA453"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A424" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B434" activeCellId="0" sqref="B434"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="169.13"/>

--- a/dados/horarios_teste.xlsx
+++ b/dados/horarios_teste.xlsx
@@ -21,116 +21,74 @@
     <style:font-face style:name="Noto Sans CJK SC" svg:font-family="'Noto Sans CJK SC'" style:font-family-generic="system" style:font-pitch="variable"/>
   </office:font-face-decls>
   <office:automatic-styles>
+    <style:style style:name="co1" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="7.726cm"/>
+    </style:style>
+    <style:style style:name="co2" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="18.995cm"/>
+    </style:style>
+    <style:style style:name="co3" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="2.484cm"/>
+    </style:style>
+    <style:style style:name="co4" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="7.089cm"/>
+    </style:style>
+    <style:style style:name="co5" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="12.016cm"/>
+    </style:style>
+    <style:style style:name="co6" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="33.973cm"/>
+    </style:style>
+    <style:style style:name="co7" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="14.194cm"/>
+    </style:style>
+    <style:style style:name="co8" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="4.752cm"/>
+    </style:style>
     <style:style style:name="co9" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="2.258cm"/>
     </style:style>
-    <style:style style:name="co2" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="1.559cm"/>
+    <style:style style:name="ro1" style:family="table-row">
+      <style:table-row-properties style:row-height="0.452cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="co3" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="11.845cm"/>
-    </style:style>
-    <style:style style:name="co4" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="1.369cm"/>
-    </style:style>
-    <style:style style:name="co5" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="7.089cm"/>
-    </style:style>
-    <style:style style:name="co6" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="2.268cm"/>
-    </style:style>
-    <style:style style:name="co7" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="11.947cm"/>
-    </style:style>
-    <style:style style:name="co8" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="14.194cm"/>
-    </style:style>
-    <style:style style:name="co10" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="4.752cm"/>
+    <style:style style:name="ro2" style:family="table-row">
+      <style:table-row-properties style:row-height="0.841cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro3" style:family="table-row">
-      <style:table-row-properties style:row-height="0.841cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="0.855cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro4" style:family="table-row">
+      <style:table-row-properties style:row-height="0.921cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+    </style:style>
+    <style:style style:name="ro5" style:family="table-row">
+      <style:table-row-properties style:row-height="1.058cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+    </style:style>
+    <style:style style:name="ro6" style:family="table-row">
+      <style:table-row-properties style:row-height="0.919cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+    </style:style>
+    <style:style style:name="ro7" style:family="table-row">
+      <style:table-row-properties style:row-height="1.03cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+    </style:style>
+    <style:style style:name="ro8" style:family="table-row">
+      <style:table-row-properties style:row-height="0.863cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+    </style:style>
+    <style:style style:name="ro9" style:family="table-row">
+      <style:table-row-properties style:row-height="2.027cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro10" style:family="table-row">
+      <style:table-row-properties style:row-height="1.236cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro11" style:family="table-row">
+      <style:table-row-properties style:row-height="2.868cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+    </style:style>
+    <style:style style:name="ro12" style:family="table-row">
       <style:table-row-properties style:row-height="1.632cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ro21" style:family="table-row">
+    <style:style style:name="ro13" style:family="table-row">
       <style:table-row-properties style:row-height="2.422cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro4" style:family="table-row">
-      <style:table-row-properties style:row-height="1.236cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro6" style:family="table-row">
-      <style:table-row-properties style:row-height="0.46cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro7" style:family="table-row">
-      <style:table-row-properties style:row-height="0.855cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro8" style:family="table-row">
-      <style:table-row-properties style:row-height="1.644cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro9" style:family="table-row">
-      <style:table-row-properties style:row-height="1.058cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
-    </style:style>
-    <style:style style:name="ro10" style:family="table-row">
-      <style:table-row-properties style:row-height="0.919cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
-    </style:style>
-    <style:style style:name="ro12" style:family="table-row">
-      <style:table-row-properties style:row-height="1.03cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
-    </style:style>
-    <style:style style:name="ro13" style:family="table-row">
-      <style:table-row-properties style:row-height="0.863cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
-    </style:style>
-    <style:style style:name="ro14" style:family="table-row">
-      <style:table-row-properties style:row-height="1.249cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro15" style:family="table-row">
-      <style:table-row-properties style:row-height="2.039cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro16" style:family="table-row">
-      <style:table-row-properties style:row-height="2.868cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
-    </style:style>
-    <style:style style:name="ro17" style:family="table-row">
-      <style:table-row-properties style:row-height="0.452cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="Default">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
-    </style:style>
-    <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="transparent" fo:wrap-option="wrap"/>
-    </style:style>
-    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="transparent"/>
-    </style:style>
-    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:wrap-option="wrap"/>
-      <style:text-properties fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
-    </style:style>
-    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:wrap-option="wrap"/>
-    </style:style>
-    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center"/>
-    </style:style>
-    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center"/>
-    </style:style>
-    <style:style style:name="ce31" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="transparent" fo:wrap-option="no-wrap"/>
-    </style:style>
-    <style:style style:name="ce32" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="wrap" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center"/>
-    </style:style>
-    <style:style style:name="ce35" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="transparent" fo:wrap-option="wrap"/>
-      <style:text-properties fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
-    </style:style>
-    <style:style style:name="ce36" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="transparent"/>
-      <style:text-properties fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
     </style:style>
     <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:background-color="transparent" fo:wrap-option="wrap"/>
@@ -182,6 +140,7 @@
       <table:calculation-settings table:automatic-find-labels="false" table:use-regular-expressions="false" table:use-wildcards="true"/>
       <table:table table:name="_WITH_docentes_por_turma_AS_SELECT_dt_id_turma_COALESCE_COUNT_p__202402211025" table:style-name="ta1">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="ce12"/>
         <table:table-column table:style-name="co2" table:default-cell-style-name="ce12"/>
         <table:table-column table:style-name="co3" table:default-cell-style-name="ce12"/>
         <table:table-column table:style-name="co4" table:default-cell-style-name="ce12"/>
@@ -189,10 +148,9 @@
         <table:table-column table:style-name="co6" table:default-cell-style-name="ce12"/>
         <table:table-column table:style-name="co7" table:default-cell-style-name="ce12"/>
         <table:table-column table:style-name="co8" table:default-cell-style-name="ce12"/>
-        <table:table-column table:style-name="co10" table:default-cell-style-name="ce12"/>
         <table:table-column table:style-name="co9" table:number-columns-repeated="1008" table:default-cell-style-name="ce12"/>
         <table:table-column table:style-name="co9" table:number-columns-repeated="8" table:default-cell-style-name="ce13"/>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell table:style-name="ce14" office:value-type="string" calcext:value-type="string">
             <text:p>cod</text:p>
           </table:table-cell>
@@ -217,7 +175,7 @@
           <table:table-cell table:style-name="ce14" table:number-columns-repeated="1009"/>
           <table:table-cell table:style-name="ce20" table:number-columns-repeated="8"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS555</text:p>
           </table:table-cell>
@@ -241,7 +199,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS556</text:p>
           </table:table-cell>
@@ -265,7 +223,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS561</text:p>
           </table:table-cell>
@@ -289,7 +247,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS560</text:p>
           </table:table-cell>
@@ -313,7 +271,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS563</text:p>
           </table:table-cell>
@@ -337,7 +295,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS525</text:p>
           </table:table-cell>
@@ -361,7 +319,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH290</text:p>
           </table:table-cell>
@@ -385,7 +343,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS534</text:p>
           </table:table-cell>
@@ -409,7 +367,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX212</text:p>
           </table:table-cell>
@@ -433,7 +391,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GLA104</text:p>
           </table:table-cell>
@@ -457,7 +415,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS526</text:p>
           </table:table-cell>
@@ -481,7 +439,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH293</text:p>
           </table:table-cell>
@@ -505,7 +463,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX094</text:p>
           </table:table-cell>
@@ -529,7 +487,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS238</text:p>
           </table:table-cell>
@@ -553,7 +511,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS527</text:p>
           </table:table-cell>
@@ -577,7 +535,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH087</text:p>
           </table:table-cell>
@@ -601,7 +559,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS530</text:p>
           </table:table-cell>
@@ -625,7 +583,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS528</text:p>
           </table:table-cell>
@@ -649,7 +607,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX210</text:p>
           </table:table-cell>
@@ -673,7 +631,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS529</text:p>
           </table:table-cell>
@@ -697,7 +655,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS531</text:p>
           </table:table-cell>
@@ -721,7 +679,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS066</text:p>
           </table:table-cell>
@@ -745,7 +703,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS068</text:p>
           </table:table-cell>
@@ -769,7 +727,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS535</text:p>
           </table:table-cell>
@@ -793,7 +751,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS532</text:p>
           </table:table-cell>
@@ -817,7 +775,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS533</text:p>
           </table:table-cell>
@@ -841,7 +799,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS539</text:p>
           </table:table-cell>
@@ -865,7 +823,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS540</text:p>
           </table:table-cell>
@@ -889,7 +847,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS538</text:p>
           </table:table-cell>
@@ -913,7 +871,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS536</text:p>
           </table:table-cell>
@@ -937,7 +895,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS537</text:p>
           </table:table-cell>
@@ -961,7 +919,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS072</text:p>
           </table:table-cell>
@@ -985,7 +943,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS542</text:p>
           </table:table-cell>
@@ -1009,7 +967,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS541</text:p>
           </table:table-cell>
@@ -1033,7 +991,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS081</text:p>
           </table:table-cell>
@@ -1057,7 +1015,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS239</text:p>
           </table:table-cell>
@@ -1081,7 +1039,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS080</text:p>
           </table:table-cell>
@@ -1105,7 +1063,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS077</text:p>
           </table:table-cell>
@@ -1129,7 +1087,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS545</text:p>
           </table:table-cell>
@@ -1153,7 +1111,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS544</text:p>
           </table:table-cell>
@@ -1177,7 +1135,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS235</text:p>
           </table:table-cell>
@@ -1201,7 +1159,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS547</text:p>
           </table:table-cell>
@@ -1227,7 +1185,7 @@
           <table:table-cell table:style-name="ce13" table:number-columns-repeated="1008"/>
           <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS546</text:p>
           </table:table-cell>
@@ -1251,7 +1209,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS082</text:p>
           </table:table-cell>
@@ -1277,7 +1235,7 @@
           <table:table-cell table:style-name="ce13" table:number-columns-repeated="1008"/>
           <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS548</text:p>
           </table:table-cell>
@@ -1301,7 +1259,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS549</text:p>
           </table:table-cell>
@@ -1325,7 +1283,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS550</text:p>
           </table:table-cell>
@@ -1349,7 +1307,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS573</text:p>
           </table:table-cell>
@@ -1373,7 +1331,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS551</text:p>
           </table:table-cell>
@@ -1397,7 +1355,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA646</text:p>
           </table:table-cell>
@@ -1421,7 +1379,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA657</text:p>
           </table:table-cell>
@@ -1445,7 +1403,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA653</text:p>
           </table:table-cell>
@@ -1469,7 +1427,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA647</text:p>
           </table:table-cell>
@@ -1493,7 +1451,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA316</text:p>
           </table:table-cell>
@@ -1517,7 +1475,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEN190</text:p>
           </table:table-cell>
@@ -1541,7 +1499,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA428</text:p>
           </table:table-cell>
@@ -1565,7 +1523,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA589</text:p>
           </table:table-cell>
@@ -1589,7 +1547,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCB0603</text:p>
           </table:table-cell>
@@ -1613,7 +1571,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA0679</text:p>
           </table:table-cell>
@@ -1637,7 +1595,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCB0601</text:p>
           </table:table-cell>
@@ -1661,7 +1619,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX1053</text:p>
           </table:table-cell>
@@ -1685,7 +1643,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCB0602</text:p>
           </table:table-cell>
@@ -1703,14 +1661,14 @@
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6M34 (04/03/2024 - 13/07/2024)</text:p>
-            <text:p>6M35 (04/03/2024 – 13/07/2024)</text:p>
+            <text:p>6M35 (04/03/2024 - 13/07/2024)</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="75" calcext:value-type="float">
             <text:p>75</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GLA0689</text:p>
           </table:table-cell>
@@ -1736,7 +1694,7 @@
           <table:table-cell table:style-name="ce13" table:number-columns-repeated="1008"/>
           <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
-        <table:table-row table:style-name="ro8">
+        <table:table-row table:style-name="ro3">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX1104</text:p>
           </table:table-cell>
@@ -1753,8 +1711,7 @@
             <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3M45 4M23 (04/03/2024 - 06/07/2024), 3M4 4M2 (08/07/2024 - 13/07/2024)</text:p>
-            <text:p>34M45 (04/03/2024 - 06/07/2024), 34M4 (08/07/2024 - 13/07/2024)</text:p>
+            <text:p>3M45 4M23 (04/03/2024 - 06/07/2024), 3M4 4M2 (08/07/2024 - 13/07/2024).34M45 (04/03/2024 - 06/07/2024), 34M4 (08/07/2024 - 13/07/2024)</text:p>
             <text:p/>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="75" calcext:value-type="float">
@@ -1762,7 +1719,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCB0606</text:p>
           </table:table-cell>
@@ -1786,7 +1743,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX087</text:p>
           </table:table-cell>
@@ -1810,7 +1767,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA0684</text:p>
           </table:table-cell>
@@ -1834,7 +1791,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA0686</text:p>
           </table:table-cell>
@@ -1858,7 +1815,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS0687</text:p>
           </table:table-cell>
@@ -1882,7 +1839,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCB057</text:p>
           </table:table-cell>
@@ -1906,7 +1863,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX1047</text:p>
           </table:table-cell>
@@ -1930,7 +1887,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA0685</text:p>
           </table:table-cell>
@@ -1954,7 +1911,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCB0607</text:p>
           </table:table-cell>
@@ -1978,7 +1935,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCB0608</text:p>
           </table:table-cell>
@@ -2002,7 +1959,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA0683</text:p>
           </table:table-cell>
@@ -2026,7 +1983,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA0683</text:p>
           </table:table-cell>
@@ -2050,7 +2007,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCB058</text:p>
           </table:table-cell>
@@ -2074,7 +2031,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA238</text:p>
           </table:table-cell>
@@ -2098,7 +2055,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA038</text:p>
           </table:table-cell>
@@ -2122,7 +2079,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCB140</text:p>
           </table:table-cell>
@@ -2146,7 +2103,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCB052</text:p>
           </table:table-cell>
@@ -2170,7 +2127,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA039</text:p>
           </table:table-cell>
@@ -2194,7 +2151,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEN081</text:p>
           </table:table-cell>
@@ -2218,7 +2175,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA231</text:p>
           </table:table-cell>
@@ -2242,7 +2199,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro4">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA225</text:p>
           </table:table-cell>
@@ -2266,7 +2223,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro9">
+        <table:table-row table:style-name="ro5">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA041</text:p>
           </table:table-cell>
@@ -2290,7 +2247,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro10">
+        <table:table-row table:style-name="ro6">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS091</text:p>
           </table:table-cell>
@@ -2314,7 +2271,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA244</text:p>
           </table:table-cell>
@@ -2338,7 +2295,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS247</text:p>
           </table:table-cell>
@@ -2362,7 +2319,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEN090</text:p>
           </table:table-cell>
@@ -2386,7 +2343,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA252</text:p>
           </table:table-cell>
@@ -2410,7 +2367,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA287</text:p>
           </table:table-cell>
@@ -2434,7 +2391,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA060</text:p>
           </table:table-cell>
@@ -2458,7 +2415,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA057</text:p>
           </table:table-cell>
@@ -2482,7 +2439,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA259</text:p>
           </table:table-cell>
@@ -2506,7 +2463,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS085</text:p>
           </table:table-cell>
@@ -2530,7 +2487,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA061</text:p>
           </table:table-cell>
@@ -2554,7 +2511,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA268</text:p>
           </table:table-cell>
@@ -2578,7 +2535,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro7">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA282</text:p>
           </table:table-cell>
@@ -2606,7 +2563,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro13">
+        <table:table-row table:style-name="ro8">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA283</text:p>
           </table:table-cell>
@@ -2636,7 +2593,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro13">
+        <table:table-row table:style-name="ro8">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX1087</text:p>
           </table:table-cell>
@@ -2664,7 +2621,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro10">
+        <table:table-row table:style-name="ro6">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX003</text:p>
           </table:table-cell>
@@ -2692,7 +2649,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX003</text:p>
           </table:table-cell>
@@ -2720,7 +2677,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX210</text:p>
           </table:table-cell>
@@ -2748,7 +2705,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX208</text:p>
           </table:table-cell>
@@ -2776,7 +2733,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX208</text:p>
           </table:table-cell>
@@ -2804,7 +2761,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH293</text:p>
           </table:table-cell>
@@ -2832,7 +2789,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX213</text:p>
           </table:table-cell>
@@ -2860,7 +2817,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX178</text:p>
           </table:table-cell>
@@ -2884,7 +2841,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEN253</text:p>
           </table:table-cell>
@@ -2908,7 +2865,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX605</text:p>
           </table:table-cell>
@@ -2932,7 +2889,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX605</text:p>
           </table:table-cell>
@@ -2956,7 +2913,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX055</text:p>
           </table:table-cell>
@@ -2980,7 +2937,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GLA104</text:p>
           </table:table-cell>
@@ -3004,7 +2961,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX392</text:p>
           </table:table-cell>
@@ -3032,7 +2989,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX608</text:p>
           </table:table-cell>
@@ -3056,7 +3013,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX609</text:p>
           </table:table-cell>
@@ -3084,7 +3041,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX609</text:p>
           </table:table-cell>
@@ -3112,7 +3069,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX098</text:p>
           </table:table-cell>
@@ -3140,7 +3097,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX098</text:p>
           </table:table-cell>
@@ -3168,7 +3125,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX090</text:p>
           </table:table-cell>
@@ -3192,7 +3149,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX615</text:p>
           </table:table-cell>
@@ -3216,7 +3173,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX195</text:p>
           </table:table-cell>
@@ -3240,7 +3197,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX612</text:p>
           </table:table-cell>
@@ -3264,7 +3221,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX613</text:p>
           </table:table-cell>
@@ -3288,7 +3245,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX613</text:p>
           </table:table-cell>
@@ -3312,7 +3269,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA0307</text:p>
           </table:table-cell>
@@ -3340,7 +3297,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH029</text:p>
           </table:table-cell>
@@ -3364,7 +3321,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GLA001</text:p>
           </table:table-cell>
@@ -3388,7 +3345,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS010</text:p>
           </table:table-cell>
@@ -3412,7 +3369,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS011</text:p>
           </table:table-cell>
@@ -3436,7 +3393,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA020</text:p>
           </table:table-cell>
@@ -3460,7 +3417,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA019</text:p>
           </table:table-cell>
@@ -3490,7 +3447,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCB080</text:p>
           </table:table-cell>
@@ -3514,7 +3471,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA018</text:p>
           </table:table-cell>
@@ -3542,7 +3499,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEN193</text:p>
           </table:table-cell>
@@ -3566,7 +3523,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEN198</text:p>
           </table:table-cell>
@@ -3590,7 +3547,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEN199</text:p>
           </table:table-cell>
@@ -3614,7 +3571,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEN200</text:p>
           </table:table-cell>
@@ -3638,7 +3595,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH892</text:p>
           </table:table-cell>
@@ -3662,7 +3619,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH823</text:p>
           </table:table-cell>
@@ -3686,7 +3643,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH290</text:p>
           </table:table-cell>
@@ -3710,7 +3667,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH293</text:p>
           </table:table-cell>
@@ -3734,7 +3691,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH822</text:p>
           </table:table-cell>
@@ -3758,7 +3715,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH855</text:p>
           </table:table-cell>
@@ -3782,7 +3739,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH369</text:p>
           </table:table-cell>
@@ -3806,7 +3763,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH293</text:p>
           </table:table-cell>
@@ -3830,7 +3787,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH368</text:p>
           </table:table-cell>
@@ -3854,7 +3811,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GLA517</text:p>
           </table:table-cell>
@@ -3882,7 +3839,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GLA550</text:p>
           </table:table-cell>
@@ -3910,7 +3867,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GLA553</text:p>
           </table:table-cell>
@@ -3938,7 +3895,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GLA355</text:p>
           </table:table-cell>
@@ -3962,7 +3919,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH292</text:p>
           </table:table-cell>
@@ -3986,7 +3943,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX213</text:p>
           </table:table-cell>
@@ -4010,7 +3967,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GLA104</text:p>
           </table:table-cell>
@@ -4034,7 +3991,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX969</text:p>
           </table:table-cell>
@@ -4062,7 +4019,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX968</text:p>
           </table:table-cell>
@@ -4090,7 +4047,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH839</text:p>
           </table:table-cell>
@@ -4114,7 +4071,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA197</text:p>
           </table:table-cell>
@@ -4142,7 +4099,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA196</text:p>
           </table:table-cell>
@@ -4166,7 +4123,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro14">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA285</text:p>
           </table:table-cell>
@@ -4198,7 +4155,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro15">
+        <table:table-row table:style-name="ro9">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA286</text:p>
           </table:table-cell>
@@ -4240,7 +4197,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA291</text:p>
           </table:table-cell>
@@ -4268,7 +4225,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA290</text:p>
           </table:table-cell>
@@ -4296,7 +4253,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA298</text:p>
           </table:table-cell>
@@ -4324,7 +4281,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA289</text:p>
           </table:table-cell>
@@ -4348,7 +4305,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GLA240</text:p>
           </table:table-cell>
@@ -4372,7 +4329,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX776</text:p>
           </table:table-cell>
@@ -4396,7 +4353,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro14">
+        <table:table-row table:style-name="ro10">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH1120</text:p>
           </table:table-cell>
@@ -4420,7 +4377,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro16">
+        <table:table-row table:style-name="ro11">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH162</text:p>
           </table:table-cell>
@@ -4444,7 +4401,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH1123</text:p>
           </table:table-cell>
@@ -4468,7 +4425,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH1124</text:p>
           </table:table-cell>
@@ -4492,7 +4449,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH1125</text:p>
           </table:table-cell>
@@ -4516,10 +4473,10 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro17" table:number-rows-repeated="1048401">
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048401">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
-        <table:table-row table:style-name="ro17">
+        <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
@@ -4528,7 +4485,7 @@
         <table:table-column table:style-name="co9" table:default-cell-style-name="ce23"/>
         <table:table-column table:style-name="co9" table:number-columns-repeated="1008" table:default-cell-style-name="ce12"/>
         <table:table-column table:style-name="co9" table:default-cell-style-name="ce13"/>
-        <table:table-row table:style-name="ro3">
+        <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="ce18" office:value-type="string" calcext:value-type="string">
             <text:p>ano</text:p>
           </table:table-cell>
@@ -4577,7 +4534,7 @@
           <table:table-cell table:style-name="ce27" table:number-columns-repeated="1008"/>
           <table:table-cell table:style-name="ce28"/>
         </table:table-row>
-        <table:table-row table:style-name="ro11">
+        <table:table-row table:style-name="ro12">
           <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -4625,7 +4582,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro11">
+        <table:table-row table:style-name="ro12">
           <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -4671,7 +4628,7 @@
           <table:covered-table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro21">
+        <table:table-row table:style-name="ro13">
           <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -4719,7 +4676,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro21">
+        <table:table-row table:style-name="ro13">
           <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -4765,7 +4722,7 @@
           <table:covered-table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro4">
+        <table:table-row table:style-name="ro10">
           <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -4813,7 +4770,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro21">
+        <table:table-row table:style-name="ro13">
           <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -4865,7 +4822,7 @@
           <table:covered-table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro4">
+        <table:table-row table:style-name="ro10">
           <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -4913,7 +4870,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro4">
+        <table:table-row table:style-name="ro10">
           <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -4959,7 +4916,7 @@
           <table:covered-table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro4">
+        <table:table-row table:style-name="ro10">
           <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -5007,7 +4964,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro4">
+        <table:table-row table:style-name="ro10">
           <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -5053,7 +5010,7 @@
           <table:covered-table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro21">
+        <table:table-row table:style-name="ro13">
           <table:table-cell table:style-name="ce12" office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -5101,7 +5058,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro21">
+        <table:table-row table:style-name="ro13">
           <table:table-cell table:style-name="ce12" office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -5147,7 +5104,7 @@
           <table:covered-table-cell table:style-name="ce25"/>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro21">
+        <table:table-row table:style-name="ro13">
           <table:table-cell table:style-name="ce12" office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -5195,7 +5152,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro21">
+        <table:table-row table:style-name="ro13">
           <table:table-cell table:style-name="ce12" office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -5261,9 +5218,9 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.2">
   <office:meta>
     <meta:generator>LibreOffice/6.4.7.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
-    <dc:date>2024-05-19T15:44:30.276594954</dc:date>
-    <meta:editing-duration>PT3H12M48S</meta:editing-duration>
-    <meta:editing-cycles>28</meta:editing-cycles>
+    <dc:date>2024-05-20T15:30:51.874416479</dc:date>
+    <meta:editing-duration>PT3H46M</meta:editing-duration>
+    <meta:editing-cycles>34</meta:editing-cycles>
     <meta:document-statistic meta:table-count="2" meta:cell-count="1436" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
@@ -5275,8 +5232,8 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">50270</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">141105</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">96475</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">97687</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -5300,17 +5257,17 @@
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="_WITH_docentes_por_turma_AS_SELECT_dt_id_turma_COALESCE_COUNT_p__202402211025">
-              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">127</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">4</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">136</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">2</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">123</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">101</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -5356,7 +5313,7 @@
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">kwH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAtAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpQYWdlU2l6ZTpBNAAAEgBDT01QQVRfRFVQTEVYX01PREUPAER1cGxleE1vZGU6Ok9mZg==</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">nwH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpEdXBsZXg6Tm9uZQBQYWdlU2l6ZTpBNAAAEgBDT01QQVRfRFVQTEVYX01PREUPAER1cGxleE1vZGU6Ok9mZg==</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
@@ -5518,9 +5475,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2024-05-19">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2024-05-20">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="15:43:13.654013252">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="14:57:36.469775576">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/dados/horarios_teste.xlsx
+++ b/dados/horarios_teste.xlsx
@@ -55,37 +55,31 @@
       <style:table-row-properties style:row-height="0.841cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro3" style:family="table-row">
-      <style:table-row-properties style:row-height="0.855cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="0.921cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
     <style:style style:name="ro4" style:family="table-row">
-      <style:table-row-properties style:row-height="0.921cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+      <style:table-row-properties style:row-height="1.058cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
     <style:style style:name="ro5" style:family="table-row">
-      <style:table-row-properties style:row-height="1.058cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+      <style:table-row-properties style:row-height="0.919cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
     <style:style style:name="ro6" style:family="table-row">
-      <style:table-row-properties style:row-height="0.919cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+      <style:table-row-properties style:row-height="1.03cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
     <style:style style:name="ro7" style:family="table-row">
-      <style:table-row-properties style:row-height="1.03cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+      <style:table-row-properties style:row-height="0.863cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
     <style:style style:name="ro8" style:family="table-row">
-      <style:table-row-properties style:row-height="0.863cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
+      <style:table-row-properties style:row-height="2.868cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
     <style:style style:name="ro9" style:family="table-row">
-      <style:table-row-properties style:row-height="2.027cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="1.632cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro10" style:family="table-row">
-      <style:table-row-properties style:row-height="1.236cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="2.422cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro11" style:family="table-row">
-      <style:table-row-properties style:row-height="2.868cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
-    </style:style>
-    <style:style style:name="ro12" style:family="table-row">
-      <style:table-row-properties style:row-height="1.632cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro13" style:family="table-row">
-      <style:table-row-properties style:row-height="2.422cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="1.236cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="Default">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
@@ -1547,7 +1541,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCB0603</text:p>
           </table:table-cell>
@@ -1571,7 +1565,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA0679</text:p>
           </table:table-cell>
@@ -1595,7 +1589,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCB0601</text:p>
           </table:table-cell>
@@ -1619,7 +1613,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX1053</text:p>
           </table:table-cell>
@@ -1668,7 +1662,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GLA0689</text:p>
           </table:table-cell>
@@ -1694,7 +1688,7 @@
           <table:table-cell table:style-name="ce13" table:number-columns-repeated="1008"/>
           <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX1104</text:p>
           </table:table-cell>
@@ -1719,7 +1713,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCB0606</text:p>
           </table:table-cell>
@@ -1767,7 +1761,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA0684</text:p>
           </table:table-cell>
@@ -1791,7 +1785,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA0686</text:p>
           </table:table-cell>
@@ -1815,7 +1809,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS0687</text:p>
           </table:table-cell>
@@ -1863,7 +1857,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX1047</text:p>
           </table:table-cell>
@@ -1887,7 +1881,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA0685</text:p>
           </table:table-cell>
@@ -1911,7 +1905,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCB0607</text:p>
           </table:table-cell>
@@ -1935,7 +1929,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCB0608</text:p>
           </table:table-cell>
@@ -1959,7 +1953,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA0683</text:p>
           </table:table-cell>
@@ -1983,7 +1977,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA0683</text:p>
           </table:table-cell>
@@ -2199,7 +2193,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro4">
+        <table:table-row table:style-name="ro3">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA225</text:p>
           </table:table-cell>
@@ -2223,7 +2217,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro5">
+        <table:table-row table:style-name="ro4">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA041</text:p>
           </table:table-cell>
@@ -2247,7 +2241,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro5">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCS091</text:p>
           </table:table-cell>
@@ -2535,7 +2529,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro7">
+        <table:table-row table:style-name="ro6">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA282</text:p>
           </table:table-cell>
@@ -2563,7 +2557,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro8">
+        <table:table-row table:style-name="ro7">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCA283</text:p>
           </table:table-cell>
@@ -2593,7 +2587,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro8">
+        <table:table-row table:style-name="ro7">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX1087</text:p>
           </table:table-cell>
@@ -2621,7 +2615,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro6">
+        <table:table-row table:style-name="ro5">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEX003</text:p>
           </table:table-cell>
@@ -3417,7 +3411,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA019</text:p>
           </table:table-cell>
@@ -3499,7 +3493,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEN193</text:p>
           </table:table-cell>
@@ -3765,46 +3759,50 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCH293</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>INTRODUÇÃO À FILOSOFIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>HISTÓRIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
-            <text:p>3</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3N1234 (04/03/2024 - 06/07/2024)</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="50" calcext:value-type="float">
-            <text:p>50</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1017"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GCH368</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>TEORIA E METODOLOGIA DA HISTÓRIA I</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>HISTÓRIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
-            <text:p>3</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>6N1234 (04/03/2024 - 13/07/2024)</text:p>
+            <text:p>GCS238</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>MEIO AMBIENTE, ECONOMIA E SOCIEDADE</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>CIÊNCIA DA COMPUTAÇÃO</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
+            <text:p>7</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>
+              4T12345 (04/03/2024 - 15/06/2024), 
+              <text:s/>
+              4T12 (17/06/2024 - 22/06/2024)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="50" calcext:value-type="float">
+            <text:p>50</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GEX395</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>CÁLCULO NUMÉRICO</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
+            <text:p>60</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>CIÊNCIA DA COMPUTAÇÃO</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
+            <text:p>7</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>2T45 4T123 (04/03/2024 - 15/06/2024)</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="50" calcext:value-type="float">
             <text:p>50</text:p>
@@ -3867,7 +3865,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GLA553</text:p>
           </table:table-cell>
@@ -4047,7 +4045,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH839</text:p>
           </table:table-cell>
@@ -4071,7 +4069,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA197</text:p>
           </table:table-cell>
@@ -4123,7 +4121,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA285</text:p>
           </table:table-cell>
@@ -4155,7 +4153,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro9">
+        <table:table-row table:style-name="ro2">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA286</text:p>
           </table:table-cell>
@@ -4197,7 +4195,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA291</text:p>
           </table:table-cell>
@@ -4281,7 +4279,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GSA289</text:p>
           </table:table-cell>
@@ -4353,7 +4351,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro10">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH1120</text:p>
           </table:table-cell>
@@ -4377,7 +4375,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro11">
+        <table:table-row table:style-name="ro8">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH162</text:p>
           </table:table-cell>
@@ -4401,7 +4399,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH1123</text:p>
           </table:table-cell>
@@ -4425,7 +4423,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH1124</text:p>
           </table:table-cell>
@@ -4449,7 +4447,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GCH1125</text:p>
           </table:table-cell>
@@ -4534,7 +4532,7 @@
           <table:table-cell table:style-name="ce27" table:number-columns-repeated="1008"/>
           <table:table-cell table:style-name="ce28"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -4582,7 +4580,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro12">
+        <table:table-row table:style-name="ro9">
           <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -4621,100 +4619,6 @@
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="15" calcext:value-type="float">
             <text:p>15</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ABERTA</text:p>
-          </table:table-cell>
-          <table:covered-table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="1009"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro13">
-          <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
-            <text:p>2024</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
-            <text:p>1</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1501" calcext:value-type="float">
-            <text:p>1501</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GEX1104</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>QUÍMICA GERAL E INORGÂNICA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="75" calcext:value-type="float">
-            <text:p>75</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="51863" calcext:value-type="float">
-            <text:p>51863</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
-            <text:p>1</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>3M45 4M23 (04/03/2024 - 06/07/2024), 3M4 4M2 (08/07/2024 - 13/07/2024)</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="25" calcext:value-type="float">
-            <text:p>25</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ARLINDO CRISTIANO FELIPPE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="75" calcext:value-type="float">
-            <text:p>75</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ABERTA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="101" calcext:value-type="float" table:number-columns-spanned="1" table:number-rows-spanned="2">
-            <text:p>101</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1009"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro13">
-          <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
-            <text:p>2024</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
-            <text:p>1</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1501" calcext:value-type="float">
-            <text:p>1501</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>AGRONOMIA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GEX1104</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>QUÍMICA GERAL E INORGÂNICA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="75" calcext:value-type="float">
-            <text:p>75</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="51865" calcext:value-type="float">
-            <text:p>51865</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
-            <text:p>1</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>34M45 (04/03/2024 - 06/07/2024), 34M4 (08/07/2024 - 13/07/2024)</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="50" calcext:value-type="float">
-            <text:p>50</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ARLINDO CRISTIANO FELIPPE</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
-            <text:p>30</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>ABERTA</text:p>
@@ -4736,6 +4640,100 @@
             <text:p>AGRONOMIA</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GEX1104</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>QUÍMICA GERAL E INORGÂNICA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="75" calcext:value-type="float">
+            <text:p>75</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="51863" calcext:value-type="float">
+            <text:p>51863</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
+            <text:p>1</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>3M45 4M23 (04/03/2024 - 06/07/2024), 3M4 4M2 (08/07/2024 - 13/07/2024)</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="25" calcext:value-type="float">
+            <text:p>25</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ARLINDO CRISTIANO FELIPPE</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="75" calcext:value-type="float">
+            <text:p>75</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ABERTA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="101" calcext:value-type="float" table:number-columns-spanned="1" table:number-rows-spanned="2">
+            <text:p>101</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1009"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro10">
+          <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
+            <text:p>2024</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
+            <text:p>1</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1501" calcext:value-type="float">
+            <text:p>1501</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GEX1104</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>QUÍMICA GERAL E INORGÂNICA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="75" calcext:value-type="float">
+            <text:p>75</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="51865" calcext:value-type="float">
+            <text:p>51865</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
+            <text:p>1</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>34M45 (04/03/2024 - 06/07/2024), 34M4 (08/07/2024 - 13/07/2024)</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="50" calcext:value-type="float">
+            <text:p>50</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ARLINDO CRISTIANO FELIPPE</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
+            <text:p>30</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>ABERTA</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1009"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro11">
+          <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
+            <text:p>2024</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
+            <text:p>1</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1501" calcext:value-type="float">
+            <text:p>1501</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>AGRONOMIA</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GEN081</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -4770,7 +4768,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro13">
+        <table:table-row table:style-name="ro10">
           <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -4822,7 +4820,7 @@
           <table:covered-table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro10">
+        <table:table-row table:style-name="ro11">
           <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -4870,7 +4868,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro10">
+        <table:table-row table:style-name="ro11">
           <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -4916,7 +4914,7 @@
           <table:covered-table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro10">
+        <table:table-row table:style-name="ro11">
           <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -4964,7 +4962,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro10">
+        <table:table-row table:style-name="ro11">
           <table:table-cell office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -5010,7 +5008,7 @@
           <table:covered-table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro13">
+        <table:table-row table:style-name="ro10">
           <table:table-cell table:style-name="ce12" office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -5058,7 +5056,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro13">
+        <table:table-row table:style-name="ro10">
           <table:table-cell table:style-name="ce12" office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -5104,7 +5102,7 @@
           <table:covered-table-cell table:style-name="ce25"/>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro13">
+        <table:table-row table:style-name="ro10">
           <table:table-cell table:style-name="ce12" office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -5152,7 +5150,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1009"/>
         </table:table-row>
-        <table:table-row table:style-name="ro13">
+        <table:table-row table:style-name="ro10">
           <table:table-cell table:style-name="ce12" office:value-type="float" office:value="2024" calcext:value-type="float">
             <text:p>2024</text:p>
           </table:table-cell>
@@ -5218,9 +5216,9 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.2">
   <office:meta>
     <meta:generator>LibreOffice/6.4.7.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
-    <dc:date>2024-05-20T15:30:51.874416479</dc:date>
-    <meta:editing-duration>PT3H46M</meta:editing-duration>
-    <meta:editing-cycles>34</meta:editing-cycles>
+    <dc:date>2024-05-21T11:13:29.943705279</dc:date>
+    <meta:editing-duration>PT3H47M19S</meta:editing-duration>
+    <meta:editing-cycles>36</meta:editing-cycles>
     <meta:document-statistic meta:table-count="2" meta:cell-count="1436" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
@@ -5233,7 +5231,7 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">96475</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">97687</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">85568</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -5257,17 +5255,17 @@
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="_WITH_docentes_por_turma_AS_SELECT_dt_id_turma_COALESCE_COUNT_p__202402211025">
-              <config:config-item config:name="CursorPositionX" config:type="int">4</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">136</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">147</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">2</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">101</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">113</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -5276,7 +5274,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">_WITH_docentes_por_turma_AS_SELECT_dt_id_turma_COALESCE_COUNT_p__202402211025</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1861</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1836</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -5313,7 +5311,7 @@
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">nwH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpEdXBsZXg6Tm9uZQBQYWdlU2l6ZTpBNAAAEgBDT01QQVRfRFVQTEVYX01PREUPAER1cGxleE1vZGU6Ok9mZg==</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">nwH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpQYWdlU2l6ZTpBNABEdXBsZXg6Tm9uZQAAEgBDT01QQVRfRFVQTEVYX01PREUPAER1cGxleE1vZGU6Ok9mZg==</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
@@ -5475,9 +5473,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2024-05-20">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2024-05-21">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="14:57:36.469775576">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="11:12:09.685757207">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
